--- a/Results/Categorization/lda2vec-partial-ner-glove-money.xlsx
+++ b/Results/Categorization/lda2vec-partial-ner-glove-money.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3233" uniqueCount="1846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3230" uniqueCount="1830">
   <si>
     <t>id</t>
   </si>
@@ -4039,181 +4039,184 @@
     <t>SERVICE|PRICES</t>
   </si>
   <si>
-    <t>SERVICE|AMBIENCE|SERVICE|FOOD|SERVICE</t>
+    <t>SERVICE|AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|PRICES|SERVICE|AMBIENCE|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|SERVICE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD||PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|AMBIENCE|SERVICE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|SERVICE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD|</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|FOOD|</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD</t>
   </si>
   <si>
     <t>FOOD|PRICES</t>
   </si>
   <si>
-    <t>PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|SERVICE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD||PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|AMBIENCE|SERVICE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|SERVICE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD|</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|FOOD|</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
     <t>AMBIENCE|AMBIENCE|PRICES</t>
   </si>
   <si>
     <t>SERVICE|FOOD|FOOD|FOOD</t>
   </si>
   <si>
-    <t>SERVICE|PRICES|SERVICE|PRICES</t>
+    <t>SERVICE|PRICES|SERVICE</t>
   </si>
   <si>
     <t>SERVICE|PRICES|PRICES|PRICES</t>
@@ -4222,15 +4225,9 @@
     <t>FOOD|SERVICE|FOOD|FOOD|FOOD</t>
   </si>
   <si>
-    <t>FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
     <t>SERVICE|FOOD|AMBIENCE|PRICES</t>
   </si>
   <si>
-    <t>AMBIENCE|PRICES|SERVICE</t>
-  </si>
-  <si>
     <t>FOOD|PRICES|PRICES|PRICES</t>
   </si>
   <si>
@@ -4252,235 +4249,220 @@
     <t>SERVICE|SERVICE|FOOD|SERVICE</t>
   </si>
   <si>
+    <t>AMBIENCE|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|FOOD|FOOD|PRICES|</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|PRICES|AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|SERVICE|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|AMBIENCE|PRICES|AMBIENCE|AMBIENCE|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE||</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|PRICES|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|PRICES|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|||AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|FOOD|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES||PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|AMBIENCE|AMBIENCE|PRICES|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|FOOD|||SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|PRICES|FOOD|FOOD|SERVICE|PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE|FOOD|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|SERVICE|AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|AMBIENCE|SERVICE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
     <t>FOOD|FOOD|AMBIENCE</t>
   </si>
   <si>
-    <t>AMBIENCE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|FOOD|FOOD|PRICES|</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|PRICES|AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|SERVICE|FOOD|PRICES|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|AMBIENCE|PRICES|AMBIENCE|AMBIENCE|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE||</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|PRICES|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|PRICES|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES|||AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|FOOD|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES||FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|AMBIENCE|AMBIENCE|PRICES|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|FOOD|||SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|PRICES|FOOD|FOOD|SERVICE|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|SERVICE|FOOD|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>|</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE|SERVICE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|PRICES|AMBIENCE|PRICES</t>
+    <t>PRICES|PRICES|AMBIENCE|PRICES</t>
   </si>
   <si>
     <t>SERVICE|SERVICE|AMBIENCE|PRICES</t>
@@ -4513,18 +4495,12 @@
     <t>service|price</t>
   </si>
   <si>
-    <t>service|decor|always|thing|excellent</t>
+    <t>service|decor|always|excellent</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>food|thing</t>
-  </si>
-  <si>
-    <t>thing|special</t>
-  </si>
-  <si>
     <t>never|though</t>
   </si>
   <si>
@@ -4567,7 +4543,7 @@
     <t>worth|menu</t>
   </si>
   <si>
-    <t>food|fresh|$6</t>
+    <t>food|fresh|$6!-</t>
   </si>
   <si>
     <t>dish|great</t>
@@ -4588,7 +4564,7 @@
     <t>ambience|would|best|nice</t>
   </si>
   <si>
-    <t>idea|view|chart|house</t>
+    <t>river|weehawken|idea|top|view|chart|house</t>
   </si>
   <si>
     <t>service|reasonable|food|great|great|great|price</t>
@@ -4654,7 +4630,7 @@
     <t>pizza|like</t>
   </si>
   <si>
-    <t>toppings|$20,</t>
+    <t>toppings|$20!-|$3!-</t>
   </si>
   <si>
     <t>food|wait</t>
@@ -4666,6 +4642,9 @@
     <t>service|pizza|great</t>
   </si>
   <si>
+    <t>end|block</t>
+  </si>
+  <si>
     <t>best|sushi</t>
   </si>
   <si>
@@ -4720,7 +4699,7 @@
     <t>excellent</t>
   </si>
   <si>
-    <t>overpriced|price|$8.00...just</t>
+    <t>overpriced|price|$8.00!-</t>
   </si>
   <si>
     <t>well|always|wine|price</t>
@@ -4816,13 +4795,10 @@
     <t>really</t>
   </si>
   <si>
-    <t>thing</t>
-  </si>
-  <si>
-    <t>service|good|restaurant|thing</t>
-  </si>
-  <si>
-    <t>delicious|thing</t>
+    <t>service|good|restaurant</t>
+  </si>
+  <si>
+    <t>delicious</t>
   </si>
   <si>
     <t>service|though|reasonable|price</t>
@@ -4831,7 +4807,7 @@
     <t>delicious|restaurant|food|fresh|fresh</t>
   </si>
   <si>
-    <t>hats</t>
+    <t>hats|chef</t>
   </si>
   <si>
     <t>delicious|fresh</t>
@@ -4855,16 +4831,16 @@
     <t>good|well</t>
   </si>
   <si>
-    <t>menu|food|$18</t>
+    <t>menu|food|$18!-</t>
   </si>
   <si>
     <t>service|food|great|price</t>
   </si>
   <si>
-    <t>atmosphere|thing|wait</t>
-  </si>
-  <si>
-    <t>dish|reasonable|price|$3-6</t>
+    <t>atmosphere|wait</t>
+  </si>
+  <si>
+    <t>dish|reasonable|price|$3-6!-</t>
   </si>
   <si>
     <t>well|great</t>
@@ -4876,9 +4852,6 @@
     <t>dish|fresh</t>
   </si>
   <si>
-    <t>delicious</t>
-  </si>
-  <si>
     <t>place|delicious|food|staff</t>
   </si>
   <si>
@@ -4897,7 +4870,7 @@
     <t>delicious|though</t>
   </si>
   <si>
-    <t>beer</t>
+    <t>bombay|beer</t>
   </si>
   <si>
     <t>place|nice</t>
@@ -4921,7 +4894,7 @@
     <t>ambience|like</t>
   </si>
   <si>
-    <t>dish|menu|thing</t>
+    <t>dish|menu</t>
   </si>
   <si>
     <t>place|good|meal</t>
@@ -4939,7 +4912,7 @@
     <t>overpriced|restaurant|menu|wine|price</t>
   </si>
   <si>
-    <t>wine|$70+</t>
+    <t>wine|$70!-|$30!-</t>
   </si>
   <si>
     <t>service|would|price</t>
@@ -4966,7 +4939,7 @@
     <t>service|place</t>
   </si>
   <si>
-    <t>service|atmosphere|restaurant|food|thing|great|great</t>
+    <t>service|atmosphere|restaurant|food|great|great</t>
   </si>
   <si>
     <t>service|menu|staff|meal</t>
@@ -4999,7 +4972,7 @@
     <t>service|ambience|nice|great</t>
   </si>
   <si>
-    <t>atmosphere|sushi|feel|like|thing|special</t>
+    <t>atmosphere|sushi|feel|like|special</t>
   </si>
   <si>
     <t>well|staff</t>
@@ -5020,7 +4993,7 @@
     <t>service|always|great</t>
   </si>
   <si>
-    <t>rude|thing|wait</t>
+    <t>rude|wait</t>
   </si>
   <si>
     <t>make|service|place|worth|feel|like|food|price|price</t>
@@ -5041,7 +5014,7 @@
     <t>rude|restaurant</t>
   </si>
   <si>
-    <t>like|thing|$7)</t>
+    <t>like|$7!-</t>
   </si>
   <si>
     <t>seats|wall|benches</t>
@@ -5062,7 +5035,7 @@
     <t>good|though|food|price</t>
   </si>
   <si>
-    <t>good|though|price|$24</t>
+    <t>good|though|price|$24!-</t>
   </si>
   <si>
     <t>wait|special</t>
@@ -5071,7 +5044,7 @@
     <t>food|nice|wait</t>
   </si>
   <si>
-    <t>great|$10.</t>
+    <t>great|$10!-</t>
   </si>
   <si>
     <t>wine|price</t>
@@ -5086,15 +5059,12 @@
     <t>make|feel|like|wait|staff</t>
   </si>
   <si>
-    <t>service|thing|thing|wait</t>
+    <t>service|wait</t>
   </si>
   <si>
     <t>good|wait|wait</t>
   </si>
   <si>
-    <t>dinner|thing|thing</t>
-  </si>
-  <si>
     <t>place|would|good|great|staff</t>
   </si>
   <si>
@@ -5104,7 +5074,7 @@
     <t>service|restaurant|back</t>
   </si>
   <si>
-    <t>gentleman|table|smile|order</t>
+    <t>gentleman|manager|table|smile|order</t>
   </si>
   <si>
     <t>food|great|price</t>
@@ -5122,7 +5092,7 @@
     <t>worth|well|back</t>
   </si>
   <si>
-    <t>place|special|money.</t>
+    <t>place|special</t>
   </si>
   <si>
     <t>service|excellent</t>
@@ -5137,9 +5107,6 @@
     <t>pizza|price</t>
   </si>
   <si>
-    <t>wait|money</t>
-  </si>
-  <si>
     <t>wait|staff</t>
   </si>
   <si>
@@ -5149,19 +5116,16 @@
     <t>place|great</t>
   </si>
   <si>
-    <t>service|thing</t>
-  </si>
-  <si>
     <t>place|worth|price</t>
   </si>
   <si>
-    <t>cheese|sandwich|business</t>
+    <t>cheese|sandwich|manager|business</t>
   </si>
   <si>
     <t>place|well</t>
   </si>
   <si>
-    <t>like|great</t>
+    <t>like|great|100 dollar!-</t>
   </si>
   <si>
     <t>worth|great</t>
@@ -5173,13 +5137,13 @@
     <t>food|price</t>
   </si>
   <si>
-    <t>wait|staff|she's-way-cuter-than-me-that-b@#$*</t>
+    <t>wait|staff|$*!-</t>
   </si>
   <si>
     <t>best|atmosphere</t>
   </si>
   <si>
-    <t>great|great|$8.50</t>
+    <t>great|great|$8.50!-</t>
   </si>
   <si>
     <t>make|good|reasonable|back|price</t>
@@ -5230,19 +5194,13 @@
     <t>quibbles|bill|measures|liquers|courtesey|house</t>
   </si>
   <si>
-    <t>thing|wait</t>
-  </si>
-  <si>
     <t>place|decor|food|great|great|price</t>
   </si>
   <si>
-    <t>place|food|money.</t>
-  </si>
-  <si>
     <t>good|reasonable|food|wine|great|price</t>
   </si>
   <si>
-    <t>overpriced|good|thing|price</t>
+    <t>overpriced|good|price</t>
   </si>
   <si>
     <t>would|food|price</t>
@@ -5257,7 +5215,7 @@
     <t>toons|redone|space</t>
   </si>
   <si>
-    <t>delight|seating|yorkie</t>
+    <t>location|delight|seating|yorkie</t>
   </si>
   <si>
     <t>reasonable|food|great|price</t>
@@ -5266,7 +5224,7 @@
     <t>good|food|price</t>
   </si>
   <si>
-    <t>jazz|point</t>
+    <t>jazz|duo|point</t>
   </si>
   <si>
     <t>service|good|food|great|price</t>
@@ -5287,10 +5245,10 @@
     <t>decor|reasonable|food|nice|price</t>
   </si>
   <si>
-    <t>sushi|$20</t>
-  </si>
-  <si>
-    <t>overpriced|price|$15....</t>
+    <t>sushi|$20!-</t>
+  </si>
+  <si>
+    <t>overpriced|price|$15!-</t>
   </si>
   <si>
     <t>restaurant|really</t>
@@ -5299,7 +5257,7 @@
     <t>feel|like</t>
   </si>
   <si>
-    <t>good|though|meal|$60</t>
+    <t>good|though|meal|$60!-</t>
   </si>
   <si>
     <t>place|worth</t>
@@ -5308,7 +5266,7 @@
     <t>place|dinner|great</t>
   </si>
   <si>
-    <t>make|atmosphere|back|thing</t>
+    <t>make|atmosphere|back</t>
   </si>
   <si>
     <t>food|excellent|great|price</t>
@@ -5320,19 +5278,19 @@
     <t>overpriced|service|food|price</t>
   </si>
   <si>
-    <t>dinner|$400.00</t>
+    <t>dinner|$400.00!-</t>
   </si>
   <si>
     <t>back|really|nice</t>
   </si>
   <si>
-    <t>plate|guacamole|$11</t>
+    <t>plate|guacamole|$11!-</t>
   </si>
   <si>
     <t>place|good|food</t>
   </si>
   <si>
-    <t>water|table|voss|bottles|water|piece|$8</t>
+    <t>water|table|voss|bottles|water|piece|$8!-</t>
   </si>
   <si>
     <t>friendly|good|food|price</t>
@@ -5359,13 +5317,10 @@
     <t>make|atmosphere|nice</t>
   </si>
   <si>
-    <t>service|dish|price|$10.</t>
-  </si>
-  <si>
-    <t>decor|thing</t>
-  </si>
-  <si>
-    <t>dinner|wine|$500</t>
+    <t>service|dish|price|$10!-</t>
+  </si>
+  <si>
+    <t>dinner|wine|$500!-</t>
   </si>
   <si>
     <t>environment|name</t>
@@ -5377,19 +5332,16 @@
     <t>restaurant|restaurant</t>
   </si>
   <si>
-    <t>environment|guys|trophy|wives|escorts</t>
-  </si>
-  <si>
-    <t>service|$500.</t>
-  </si>
-  <si>
-    <t>back|money</t>
-  </si>
-  <si>
-    <t>drinks|$14</t>
-  </si>
-  <si>
-    <t>would|dinner|$55</t>
+    <t>environment|lot|guys|trophy|wives|escorts</t>
+  </si>
+  <si>
+    <t>service|$500!-</t>
+  </si>
+  <si>
+    <t>drinks|$14!-</t>
+  </si>
+  <si>
+    <t>would|dinner|$55!-</t>
   </si>
   <si>
     <t>would|good|dinner|food</t>
@@ -5398,16 +5350,16 @@
     <t>would|dinner|meal</t>
   </si>
   <si>
-    <t>never|feel|restaurant|money.</t>
+    <t>never|feel|restaurant</t>
   </si>
   <si>
     <t>good|food|fresh</t>
   </si>
   <si>
-    <t>place|would|feel|restaurant|price|$25),</t>
-  </si>
-  <si>
-    <t>place|food|thing|$</t>
+    <t>place|would|feel|restaurant|price|$25!-</t>
+  </si>
+  <si>
+    <t>place|food|$!-</t>
   </si>
   <si>
     <t>worth</t>
@@ -5416,19 +5368,19 @@
     <t>place|dinner|romantic</t>
   </si>
   <si>
-    <t>stone|bowl|$2</t>
+    <t>stone|bowl|$2!-</t>
   </si>
   <si>
     <t>sushi|restaurant|romantic</t>
   </si>
   <si>
-    <t>menu|$29</t>
-  </si>
-  <si>
-    <t>good|reasonable|thing|great|price</t>
-  </si>
-  <si>
-    <t>service|rude|well|$500</t>
+    <t>menu|$29!-</t>
+  </si>
+  <si>
+    <t>good|reasonable|great|price</t>
+  </si>
+  <si>
+    <t>service|rude|well|$500!-</t>
   </si>
   <si>
     <t>service|good|fresh|great|meal</t>
@@ -5437,13 +5389,13 @@
     <t>would|good|food|back|price</t>
   </si>
   <si>
-    <t>never|restaurant|$24</t>
+    <t>never|restaurant|$24!-</t>
   </si>
   <si>
     <t>would|menu|reasonable</t>
   </si>
   <si>
-    <t>service|$60</t>
+    <t>service|$60!-</t>
   </si>
   <si>
     <t>place|price</t>
@@ -5958,10 +5910,10 @@
         <v>1337</v>
       </c>
       <c r="G2" t="s">
-        <v>1492</v>
+        <v>1486</v>
       </c>
       <c r="H2" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5987,7 +5939,7 @@
         <v>933</v>
       </c>
       <c r="H3" t="s">
-        <v>1812</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -6010,10 +5962,10 @@
         <v>1338</v>
       </c>
       <c r="G4" t="s">
-        <v>1493</v>
+        <v>1487</v>
       </c>
       <c r="H4" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -6036,10 +5988,10 @@
         <v>1276</v>
       </c>
       <c r="G5" t="s">
-        <v>1494</v>
+        <v>1488</v>
       </c>
       <c r="H5" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -6062,10 +6014,10 @@
         <v>1339</v>
       </c>
       <c r="G6" t="s">
-        <v>1495</v>
+        <v>1489</v>
       </c>
       <c r="H6" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6088,10 +6040,10 @@
         <v>1276</v>
       </c>
       <c r="G7" t="s">
-        <v>1496</v>
+        <v>1490</v>
       </c>
       <c r="H7" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6114,10 +6066,10 @@
         <v>1276</v>
       </c>
       <c r="G8" t="s">
-        <v>1497</v>
+        <v>1491</v>
       </c>
       <c r="H8" t="s">
-        <v>1815</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6140,10 +6092,10 @@
         <v>1340</v>
       </c>
       <c r="G9" t="s">
-        <v>1498</v>
+        <v>1492</v>
       </c>
       <c r="H9" t="s">
-        <v>1816</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6166,10 +6118,10 @@
         <v>1341</v>
       </c>
       <c r="G10" t="s">
-        <v>1499</v>
+        <v>1493</v>
       </c>
       <c r="H10" t="s">
-        <v>1816</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6192,10 +6144,10 @@
         <v>1276</v>
       </c>
       <c r="G11" t="s">
-        <v>1500</v>
+        <v>1494</v>
       </c>
       <c r="H11" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6215,13 +6167,13 @@
         <v>1282</v>
       </c>
       <c r="F12" t="s">
-        <v>1342</v>
+        <v>1278</v>
       </c>
       <c r="G12" t="s">
-        <v>1501</v>
+        <v>933</v>
       </c>
       <c r="H12" t="s">
-        <v>1815</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6241,13 +6193,13 @@
         <v>1278</v>
       </c>
       <c r="F13" t="s">
-        <v>1343</v>
+        <v>1276</v>
       </c>
       <c r="G13" t="s">
-        <v>1502</v>
+        <v>1494</v>
       </c>
       <c r="H13" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6267,13 +6219,13 @@
         <v>1277</v>
       </c>
       <c r="F14" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G14" t="s">
-        <v>1503</v>
+        <v>1495</v>
       </c>
       <c r="H14" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -6293,13 +6245,13 @@
         <v>1283</v>
       </c>
       <c r="F15" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="G15" t="s">
-        <v>1504</v>
+        <v>1496</v>
       </c>
       <c r="H15" t="s">
-        <v>1817</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6319,13 +6271,13 @@
         <v>1284</v>
       </c>
       <c r="F16" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="G16" t="s">
-        <v>1505</v>
+        <v>1497</v>
       </c>
       <c r="H16" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6345,13 +6297,13 @@
         <v>1277</v>
       </c>
       <c r="F17" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="G17" t="s">
-        <v>1506</v>
+        <v>1498</v>
       </c>
       <c r="H17" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6371,13 +6323,13 @@
         <v>1276</v>
       </c>
       <c r="F18" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G18" t="s">
-        <v>1507</v>
+        <v>1499</v>
       </c>
       <c r="H18" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6400,7 +6352,7 @@
         <v>933</v>
       </c>
       <c r="H19" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6420,13 +6372,13 @@
         <v>1276</v>
       </c>
       <c r="F20" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G20" t="s">
-        <v>1508</v>
+        <v>1500</v>
       </c>
       <c r="H20" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6452,7 +6404,7 @@
         <v>1120</v>
       </c>
       <c r="H21" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6478,7 +6430,7 @@
         <v>947</v>
       </c>
       <c r="H22" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6498,13 +6450,13 @@
         <v>1276</v>
       </c>
       <c r="F23" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="G23" t="s">
-        <v>1509</v>
+        <v>1501</v>
       </c>
       <c r="H23" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6524,13 +6476,13 @@
         <v>1278</v>
       </c>
       <c r="F24" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="G24" t="s">
-        <v>1510</v>
+        <v>1502</v>
       </c>
       <c r="H24" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6556,7 +6508,7 @@
         <v>947</v>
       </c>
       <c r="H25" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6576,13 +6528,13 @@
         <v>1278</v>
       </c>
       <c r="F26" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="G26" t="s">
-        <v>1511</v>
+        <v>1503</v>
       </c>
       <c r="H26" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6602,13 +6554,13 @@
         <v>1277</v>
       </c>
       <c r="F27" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="G27" t="s">
-        <v>1512</v>
+        <v>1504</v>
       </c>
       <c r="H27" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -6628,10 +6580,10 @@
         <v>1278</v>
       </c>
       <c r="G28" t="s">
-        <v>1513</v>
+        <v>1505</v>
       </c>
       <c r="H28" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -6651,13 +6603,13 @@
         <v>1279</v>
       </c>
       <c r="F29" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="G29" t="s">
-        <v>1514</v>
+        <v>1506</v>
       </c>
       <c r="H29" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -6677,13 +6629,13 @@
         <v>1284</v>
       </c>
       <c r="F30" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="G30" t="s">
-        <v>1515</v>
+        <v>1507</v>
       </c>
       <c r="H30" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -6706,10 +6658,10 @@
         <v>1339</v>
       </c>
       <c r="G31" t="s">
-        <v>1516</v>
+        <v>1508</v>
       </c>
       <c r="H31" t="s">
-        <v>1816</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -6729,13 +6681,13 @@
         <v>1286</v>
       </c>
       <c r="F32" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="G32" t="s">
-        <v>1517</v>
+        <v>1509</v>
       </c>
       <c r="H32" t="s">
-        <v>1816</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -6755,13 +6707,13 @@
         <v>1278</v>
       </c>
       <c r="F33" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="G33" t="s">
-        <v>1518</v>
+        <v>1510</v>
       </c>
       <c r="H33" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -6781,13 +6733,13 @@
         <v>1284</v>
       </c>
       <c r="F34" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="G34" t="s">
-        <v>1519</v>
+        <v>1511</v>
       </c>
       <c r="H34" t="s">
-        <v>1818</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -6810,10 +6762,10 @@
         <v>1285</v>
       </c>
       <c r="G35" t="s">
-        <v>1520</v>
+        <v>1512</v>
       </c>
       <c r="H35" t="s">
-        <v>1819</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -6833,13 +6785,13 @@
         <v>1276</v>
       </c>
       <c r="F36" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G36" t="s">
-        <v>1521</v>
+        <v>1513</v>
       </c>
       <c r="H36" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -6862,10 +6814,10 @@
         <v>1276</v>
       </c>
       <c r="G37" t="s">
-        <v>1494</v>
+        <v>1488</v>
       </c>
       <c r="H37" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -6885,13 +6837,13 @@
         <v>1278</v>
       </c>
       <c r="F38" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="G38" t="s">
-        <v>1522</v>
+        <v>1514</v>
       </c>
       <c r="H38" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -6911,13 +6863,13 @@
         <v>1285</v>
       </c>
       <c r="F39" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="G39" t="s">
-        <v>1523</v>
+        <v>1515</v>
       </c>
       <c r="H39" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -6937,13 +6889,13 @@
         <v>1285</v>
       </c>
       <c r="F40" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="G40" t="s">
-        <v>1524</v>
+        <v>1516</v>
       </c>
       <c r="H40" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -6963,13 +6915,13 @@
         <v>1280</v>
       </c>
       <c r="F41" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="G41" t="s">
-        <v>1525</v>
+        <v>1517</v>
       </c>
       <c r="H41" t="s">
-        <v>1816</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -6989,13 +6941,13 @@
         <v>1278</v>
       </c>
       <c r="F42" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="G42" t="s">
-        <v>1526</v>
+        <v>1518</v>
       </c>
       <c r="H42" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -7015,13 +6967,13 @@
         <v>1285</v>
       </c>
       <c r="F43" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="G43" t="s">
-        <v>1527</v>
+        <v>1519</v>
       </c>
       <c r="H43" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -7047,7 +6999,7 @@
         <v>968</v>
       </c>
       <c r="H44" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -7073,7 +7025,7 @@
         <v>933</v>
       </c>
       <c r="H45" t="s">
-        <v>1820</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -7093,13 +7045,13 @@
         <v>1289</v>
       </c>
       <c r="F46" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="G46" t="s">
-        <v>1528</v>
+        <v>1520</v>
       </c>
       <c r="H46" t="s">
-        <v>1821</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -7125,7 +7077,7 @@
         <v>989</v>
       </c>
       <c r="H47" t="s">
-        <v>1812</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -7145,13 +7097,13 @@
         <v>1279</v>
       </c>
       <c r="F48" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="G48" t="s">
-        <v>1529</v>
+        <v>1521</v>
       </c>
       <c r="H48" t="s">
-        <v>1812</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -7171,13 +7123,13 @@
         <v>1282</v>
       </c>
       <c r="F49" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="G49" t="s">
-        <v>1530</v>
+        <v>1522</v>
       </c>
       <c r="H49" t="s">
-        <v>1822</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -7200,10 +7152,10 @@
         <v>1339</v>
       </c>
       <c r="G50" t="s">
-        <v>1531</v>
+        <v>1523</v>
       </c>
       <c r="H50" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -7223,13 +7175,13 @@
         <v>1282</v>
       </c>
       <c r="F51" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="G51" t="s">
-        <v>1532</v>
+        <v>1524</v>
       </c>
       <c r="H51" t="s">
-        <v>1816</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -7249,13 +7201,13 @@
         <v>1278</v>
       </c>
       <c r="F52" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="G52" t="s">
-        <v>1533</v>
+        <v>1525</v>
       </c>
       <c r="H52" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -7275,13 +7227,13 @@
         <v>1277</v>
       </c>
       <c r="F53" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="G53" t="s">
-        <v>1534</v>
+        <v>1526</v>
       </c>
       <c r="H53" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -7301,13 +7253,13 @@
         <v>1277</v>
       </c>
       <c r="F54" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="G54" t="s">
-        <v>1535</v>
+        <v>1527</v>
       </c>
       <c r="H54" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -7327,13 +7279,13 @@
         <v>1290</v>
       </c>
       <c r="F55" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="G55" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="H55" t="s">
-        <v>1823</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7353,13 +7305,13 @@
         <v>1291</v>
       </c>
       <c r="F56" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="G56" t="s">
-        <v>1537</v>
+        <v>1529</v>
       </c>
       <c r="H56" t="s">
-        <v>1824</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -7379,13 +7331,13 @@
         <v>1276</v>
       </c>
       <c r="F57" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="G57" t="s">
-        <v>1538</v>
+        <v>1530</v>
       </c>
       <c r="H57" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -7405,13 +7357,13 @@
         <v>1279</v>
       </c>
       <c r="F58" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="G58" t="s">
-        <v>1539</v>
+        <v>1531</v>
       </c>
       <c r="H58" t="s">
-        <v>1825</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -7431,13 +7383,13 @@
         <v>1292</v>
       </c>
       <c r="F59" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="G59" t="s">
-        <v>1540</v>
+        <v>1532</v>
       </c>
       <c r="H59" t="s">
-        <v>1823</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -7460,10 +7412,10 @@
         <v>1276</v>
       </c>
       <c r="G60" t="s">
-        <v>1497</v>
+        <v>1491</v>
       </c>
       <c r="H60" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -7489,7 +7441,7 @@
         <v>933</v>
       </c>
       <c r="H61" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -7509,13 +7461,13 @@
         <v>1290</v>
       </c>
       <c r="F62" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="G62" t="s">
-        <v>1541</v>
+        <v>1533</v>
       </c>
       <c r="H62" t="s">
-        <v>1816</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -7535,13 +7487,13 @@
         <v>1276</v>
       </c>
       <c r="F63" t="s">
-        <v>1343</v>
+        <v>1369</v>
       </c>
       <c r="G63" t="s">
-        <v>1542</v>
+        <v>1534</v>
       </c>
       <c r="H63" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -7561,13 +7513,13 @@
         <v>1278</v>
       </c>
       <c r="F64" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="G64" t="s">
-        <v>1543</v>
+        <v>1535</v>
       </c>
       <c r="H64" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -7587,13 +7539,13 @@
         <v>1276</v>
       </c>
       <c r="F65" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G65" t="s">
-        <v>1507</v>
+        <v>1499</v>
       </c>
       <c r="H65" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -7613,13 +7565,13 @@
         <v>1276</v>
       </c>
       <c r="F66" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="G66" t="s">
-        <v>1544</v>
+        <v>1536</v>
       </c>
       <c r="H66" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -7639,13 +7591,13 @@
         <v>1293</v>
       </c>
       <c r="F67" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="G67" t="s">
-        <v>1545</v>
+        <v>1537</v>
       </c>
       <c r="H67" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -7671,7 +7623,7 @@
         <v>989</v>
       </c>
       <c r="H68" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -7691,13 +7643,13 @@
         <v>1295</v>
       </c>
       <c r="F69" t="s">
-        <v>1342</v>
+        <v>1372</v>
       </c>
       <c r="G69" t="s">
-        <v>1546</v>
+        <v>1538</v>
       </c>
       <c r="H69" t="s">
-        <v>1812</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -7720,10 +7672,10 @@
         <v>1294</v>
       </c>
       <c r="G70" t="s">
-        <v>1513</v>
+        <v>1505</v>
       </c>
       <c r="H70" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -7749,7 +7701,7 @@
         <v>933</v>
       </c>
       <c r="H71" t="s">
-        <v>1812</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -7769,13 +7721,13 @@
         <v>1296</v>
       </c>
       <c r="F72" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="G72" t="s">
-        <v>1547</v>
+        <v>1539</v>
       </c>
       <c r="H72" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7798,10 +7750,10 @@
         <v>1373</v>
       </c>
       <c r="G73" t="s">
-        <v>1548</v>
+        <v>1540</v>
       </c>
       <c r="H73" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -7824,10 +7776,10 @@
         <v>1374</v>
       </c>
       <c r="G74" t="s">
-        <v>1549</v>
+        <v>1541</v>
       </c>
       <c r="H74" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -7853,7 +7805,7 @@
         <v>985</v>
       </c>
       <c r="H75" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -7873,13 +7825,13 @@
         <v>1285</v>
       </c>
       <c r="F76" t="s">
-        <v>1285</v>
+        <v>1345</v>
       </c>
       <c r="G76" t="s">
-        <v>995</v>
+        <v>1542</v>
       </c>
       <c r="H76" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -7902,10 +7854,10 @@
         <v>1339</v>
       </c>
       <c r="G77" t="s">
-        <v>1550</v>
+        <v>1543</v>
       </c>
       <c r="H77" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -7925,13 +7877,13 @@
         <v>1289</v>
       </c>
       <c r="F78" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="G78" t="s">
-        <v>1551</v>
+        <v>1544</v>
       </c>
       <c r="H78" t="s">
-        <v>1826</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -7951,13 +7903,13 @@
         <v>1278</v>
       </c>
       <c r="F79" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="G79" t="s">
-        <v>1552</v>
+        <v>1545</v>
       </c>
       <c r="H79" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -7980,10 +7932,10 @@
         <v>1375</v>
       </c>
       <c r="G80" t="s">
-        <v>1553</v>
+        <v>1546</v>
       </c>
       <c r="H80" t="s">
-        <v>1816</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -8006,10 +7958,10 @@
         <v>1374</v>
       </c>
       <c r="G81" t="s">
-        <v>1554</v>
+        <v>1547</v>
       </c>
       <c r="H81" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -8032,10 +7984,10 @@
         <v>1376</v>
       </c>
       <c r="G82" t="s">
-        <v>1555</v>
+        <v>1548</v>
       </c>
       <c r="H82" t="s">
-        <v>1825</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -8061,7 +8013,7 @@
         <v>933</v>
       </c>
       <c r="H83" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -8087,7 +8039,7 @@
         <v>1000</v>
       </c>
       <c r="H84" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -8110,10 +8062,10 @@
         <v>1339</v>
       </c>
       <c r="G85" t="s">
-        <v>1556</v>
+        <v>1549</v>
       </c>
       <c r="H85" t="s">
-        <v>1827</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -8136,10 +8088,10 @@
         <v>1278</v>
       </c>
       <c r="G86" t="s">
-        <v>1557</v>
+        <v>1550</v>
       </c>
       <c r="H86" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -8162,10 +8114,10 @@
         <v>1377</v>
       </c>
       <c r="G87" t="s">
-        <v>1558</v>
+        <v>1551</v>
       </c>
       <c r="H87" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -8185,13 +8137,13 @@
         <v>1284</v>
       </c>
       <c r="F88" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="G88" t="s">
-        <v>1559</v>
+        <v>1552</v>
       </c>
       <c r="H88" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -8214,10 +8166,10 @@
         <v>1285</v>
       </c>
       <c r="G89" t="s">
-        <v>1560</v>
+        <v>1553</v>
       </c>
       <c r="H89" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -8243,7 +8195,7 @@
         <v>968</v>
       </c>
       <c r="H90" t="s">
-        <v>1818</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -8266,10 +8218,10 @@
         <v>1378</v>
       </c>
       <c r="G91" t="s">
-        <v>1561</v>
+        <v>1554</v>
       </c>
       <c r="H91" t="s">
-        <v>1816</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -8292,10 +8244,10 @@
         <v>1379</v>
       </c>
       <c r="G92" t="s">
-        <v>1562</v>
+        <v>1555</v>
       </c>
       <c r="H92" t="s">
-        <v>1828</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -8318,10 +8270,10 @@
         <v>1380</v>
       </c>
       <c r="G93" t="s">
-        <v>1563</v>
+        <v>1556</v>
       </c>
       <c r="H93" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -8344,10 +8296,10 @@
         <v>1381</v>
       </c>
       <c r="G94" t="s">
-        <v>1564</v>
+        <v>1557</v>
       </c>
       <c r="H94" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -8370,10 +8322,10 @@
         <v>1382</v>
       </c>
       <c r="G95" t="s">
-        <v>1565</v>
+        <v>1558</v>
       </c>
       <c r="H95" t="s">
-        <v>1816</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -8396,10 +8348,10 @@
         <v>1294</v>
       </c>
       <c r="G96" t="s">
-        <v>1566</v>
+        <v>1559</v>
       </c>
       <c r="H96" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -8422,10 +8374,10 @@
         <v>1276</v>
       </c>
       <c r="G97" t="s">
-        <v>1567</v>
+        <v>1560</v>
       </c>
       <c r="H97" t="s">
-        <v>1818</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -8448,10 +8400,10 @@
         <v>1276</v>
       </c>
       <c r="G98" t="s">
-        <v>1497</v>
+        <v>1491</v>
       </c>
       <c r="H98" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -8474,10 +8426,10 @@
         <v>1383</v>
       </c>
       <c r="G99" t="s">
-        <v>1568</v>
+        <v>1561</v>
       </c>
       <c r="H99" t="s">
-        <v>1812</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -8500,10 +8452,10 @@
         <v>1384</v>
       </c>
       <c r="G100" t="s">
-        <v>1569</v>
+        <v>1562</v>
       </c>
       <c r="H100" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -8526,10 +8478,10 @@
         <v>1278</v>
       </c>
       <c r="G101" t="s">
-        <v>1500</v>
+        <v>1494</v>
       </c>
       <c r="H101" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -8549,13 +8501,13 @@
         <v>1285</v>
       </c>
       <c r="F102" t="s">
-        <v>1343</v>
+        <v>1369</v>
       </c>
       <c r="G102" t="s">
-        <v>1570</v>
+        <v>1563</v>
       </c>
       <c r="H102" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -8575,13 +8527,13 @@
         <v>1285</v>
       </c>
       <c r="F103" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G103" t="s">
-        <v>1571</v>
+        <v>1564</v>
       </c>
       <c r="H103" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -8601,13 +8553,13 @@
         <v>1277</v>
       </c>
       <c r="F104" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="G104" t="s">
-        <v>1572</v>
+        <v>1565</v>
       </c>
       <c r="H104" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -8633,7 +8585,7 @@
         <v>931</v>
       </c>
       <c r="H105" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -8656,10 +8608,10 @@
         <v>1385</v>
       </c>
       <c r="G106" t="s">
-        <v>1573</v>
+        <v>1566</v>
       </c>
       <c r="H106" t="s">
-        <v>1816</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -8679,13 +8631,13 @@
         <v>1276</v>
       </c>
       <c r="F107" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="G107" t="s">
-        <v>1574</v>
+        <v>1567</v>
       </c>
       <c r="H107" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -8708,10 +8660,10 @@
         <v>1386</v>
       </c>
       <c r="G108" t="s">
-        <v>1575</v>
+        <v>1568</v>
       </c>
       <c r="H108" t="s">
-        <v>1829</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -8731,10 +8683,10 @@
         <v>1298</v>
       </c>
       <c r="G109" t="s">
-        <v>1500</v>
+        <v>1494</v>
       </c>
       <c r="H109" t="s">
-        <v>1816</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -8757,10 +8709,10 @@
         <v>1285</v>
       </c>
       <c r="G110" t="s">
-        <v>1576</v>
+        <v>1569</v>
       </c>
       <c r="H110" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -8783,10 +8735,10 @@
         <v>1339</v>
       </c>
       <c r="G111" t="s">
-        <v>1577</v>
+        <v>1570</v>
       </c>
       <c r="H111" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -8809,10 +8761,10 @@
         <v>1276</v>
       </c>
       <c r="G112" t="s">
-        <v>1567</v>
+        <v>1560</v>
       </c>
       <c r="H112" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -8838,7 +8790,7 @@
         <v>1065</v>
       </c>
       <c r="H113" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -8864,7 +8816,7 @@
         <v>947</v>
       </c>
       <c r="H114" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -8887,10 +8839,10 @@
         <v>1387</v>
       </c>
       <c r="G115" t="s">
-        <v>1578</v>
+        <v>1571</v>
       </c>
       <c r="H115" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -8913,10 +8865,10 @@
         <v>1388</v>
       </c>
       <c r="G116" t="s">
-        <v>1579</v>
+        <v>1572</v>
       </c>
       <c r="H116" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -8939,10 +8891,10 @@
         <v>1389</v>
       </c>
       <c r="G117" t="s">
-        <v>1580</v>
+        <v>1573</v>
       </c>
       <c r="H117" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -8965,10 +8917,10 @@
         <v>1390</v>
       </c>
       <c r="G118" t="s">
-        <v>1581</v>
+        <v>1574</v>
       </c>
       <c r="H118" t="s">
-        <v>1826</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -8991,10 +8943,10 @@
         <v>1391</v>
       </c>
       <c r="G119" t="s">
-        <v>1582</v>
+        <v>1575</v>
       </c>
       <c r="H119" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -9020,7 +8972,7 @@
         <v>968</v>
       </c>
       <c r="H120" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -9046,7 +8998,7 @@
         <v>947</v>
       </c>
       <c r="H121" t="s">
-        <v>1823</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -9072,7 +9024,7 @@
         <v>931</v>
       </c>
       <c r="H122" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -9098,7 +9050,7 @@
         <v>933</v>
       </c>
       <c r="H123" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -9121,10 +9073,10 @@
         <v>1392</v>
       </c>
       <c r="G124" t="s">
-        <v>1583</v>
+        <v>1576</v>
       </c>
       <c r="H124" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -9147,10 +9099,10 @@
         <v>1276</v>
       </c>
       <c r="G125" t="s">
-        <v>1584</v>
+        <v>1577</v>
       </c>
       <c r="H125" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -9176,7 +9128,7 @@
         <v>1000</v>
       </c>
       <c r="H126" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -9199,10 +9151,10 @@
         <v>1276</v>
       </c>
       <c r="G127" t="s">
-        <v>1500</v>
+        <v>1494</v>
       </c>
       <c r="H127" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -9225,10 +9177,10 @@
         <v>1340</v>
       </c>
       <c r="G128" t="s">
-        <v>1585</v>
+        <v>1578</v>
       </c>
       <c r="H128" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -9251,10 +9203,10 @@
         <v>1393</v>
       </c>
       <c r="G129" t="s">
-        <v>1586</v>
+        <v>1579</v>
       </c>
       <c r="H129" t="s">
-        <v>1818</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -9277,10 +9229,10 @@
         <v>1394</v>
       </c>
       <c r="G130" t="s">
-        <v>1587</v>
+        <v>1580</v>
       </c>
       <c r="H130" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -9300,13 +9252,13 @@
         <v>1298</v>
       </c>
       <c r="F131" t="s">
-        <v>1343</v>
+        <v>1369</v>
       </c>
       <c r="G131" t="s">
-        <v>1588</v>
+        <v>1581</v>
       </c>
       <c r="H131" t="s">
-        <v>1818</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -9329,10 +9281,10 @@
         <v>1390</v>
       </c>
       <c r="G132" t="s">
-        <v>1589</v>
+        <v>1582</v>
       </c>
       <c r="H132" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -9355,10 +9307,10 @@
         <v>1395</v>
       </c>
       <c r="G133" t="s">
-        <v>1590</v>
+        <v>1583</v>
       </c>
       <c r="H133" t="s">
-        <v>1818</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -9381,10 +9333,10 @@
         <v>1377</v>
       </c>
       <c r="G134" t="s">
-        <v>1591</v>
+        <v>1584</v>
       </c>
       <c r="H134" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -9410,7 +9362,7 @@
         <v>1065</v>
       </c>
       <c r="H135" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -9433,10 +9385,10 @@
         <v>1339</v>
       </c>
       <c r="G136" t="s">
-        <v>1531</v>
+        <v>1523</v>
       </c>
       <c r="H136" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -9459,10 +9411,10 @@
         <v>1396</v>
       </c>
       <c r="G137" t="s">
-        <v>1592</v>
+        <v>1585</v>
       </c>
       <c r="H137" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -9482,13 +9434,13 @@
         <v>1276</v>
       </c>
       <c r="F138" t="s">
-        <v>1342</v>
+        <v>1397</v>
       </c>
       <c r="G138" t="s">
-        <v>1593</v>
+        <v>1586</v>
       </c>
       <c r="H138" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -9508,13 +9460,13 @@
         <v>1298</v>
       </c>
       <c r="F139" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="G139" t="s">
-        <v>1594</v>
+        <v>1587</v>
       </c>
       <c r="H139" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -9537,10 +9489,10 @@
         <v>1396</v>
       </c>
       <c r="G140" t="s">
-        <v>1595</v>
+        <v>1588</v>
       </c>
       <c r="H140" t="s">
-        <v>1816</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -9566,7 +9518,7 @@
         <v>1050</v>
       </c>
       <c r="H141" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -9586,13 +9538,13 @@
         <v>1278</v>
       </c>
       <c r="F142" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="G142" t="s">
-        <v>1596</v>
+        <v>1589</v>
       </c>
       <c r="H142" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -9612,13 +9564,13 @@
         <v>1284</v>
       </c>
       <c r="F143" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="G143" t="s">
-        <v>1559</v>
+        <v>1552</v>
       </c>
       <c r="H143" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -9641,10 +9593,10 @@
         <v>1278</v>
       </c>
       <c r="G144" t="s">
-        <v>1597</v>
+        <v>1590</v>
       </c>
       <c r="H144" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -9670,7 +9622,7 @@
         <v>989</v>
       </c>
       <c r="H145" t="s">
-        <v>1816</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -9690,13 +9642,13 @@
         <v>1302</v>
       </c>
       <c r="F146" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="G146" t="s">
-        <v>1598</v>
+        <v>1591</v>
       </c>
       <c r="H146" t="s">
-        <v>1816</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -9722,7 +9674,7 @@
         <v>931</v>
       </c>
       <c r="H147" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -9745,10 +9697,10 @@
         <v>1294</v>
       </c>
       <c r="G148" t="s">
-        <v>1599</v>
+        <v>1592</v>
       </c>
       <c r="H148" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -9767,14 +9719,8 @@
       <c r="E149" t="s">
         <v>1277</v>
       </c>
-      <c r="F149" t="s">
-        <v>1285</v>
-      </c>
-      <c r="G149" t="s">
-        <v>1600</v>
-      </c>
       <c r="H149" t="s">
-        <v>1830</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -9794,13 +9740,13 @@
         <v>1276</v>
       </c>
       <c r="F150" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="G150" t="s">
-        <v>1601</v>
+        <v>1593</v>
       </c>
       <c r="H150" t="s">
-        <v>1818</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -9826,7 +9772,7 @@
         <v>996</v>
       </c>
       <c r="H151" t="s">
-        <v>1831</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -9846,13 +9792,13 @@
         <v>1277</v>
       </c>
       <c r="F152" t="s">
-        <v>1351</v>
+        <v>1278</v>
       </c>
       <c r="G152" t="s">
-        <v>1602</v>
+        <v>1594</v>
       </c>
       <c r="H152" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -9872,13 +9818,13 @@
         <v>1304</v>
       </c>
       <c r="F153" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="G153" t="s">
-        <v>1603</v>
+        <v>1595</v>
       </c>
       <c r="H153" t="s">
-        <v>1818</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -9898,13 +9844,13 @@
         <v>1278</v>
       </c>
       <c r="F154" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="G154" t="s">
-        <v>1604</v>
+        <v>1596</v>
       </c>
       <c r="H154" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -9924,13 +9870,13 @@
         <v>1278</v>
       </c>
       <c r="F155" t="s">
-        <v>1278</v>
+        <v>1349</v>
       </c>
       <c r="G155" t="s">
-        <v>1605</v>
+        <v>1597</v>
       </c>
       <c r="H155" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -9950,13 +9896,13 @@
         <v>1278</v>
       </c>
       <c r="F156" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="G156" t="s">
-        <v>1606</v>
+        <v>1598</v>
       </c>
       <c r="H156" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -9979,10 +9925,10 @@
         <v>1276</v>
       </c>
       <c r="G157" t="s">
-        <v>1500</v>
+        <v>1494</v>
       </c>
       <c r="H157" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -10005,10 +9951,10 @@
         <v>1285</v>
       </c>
       <c r="G158" t="s">
-        <v>1560</v>
+        <v>1553</v>
       </c>
       <c r="H158" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -10028,13 +9974,13 @@
         <v>1285</v>
       </c>
       <c r="F159" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="G159" t="s">
-        <v>1607</v>
+        <v>1599</v>
       </c>
       <c r="H159" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -10057,10 +10003,10 @@
         <v>1376</v>
       </c>
       <c r="G160" t="s">
-        <v>1608</v>
+        <v>1600</v>
       </c>
       <c r="H160" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -10086,7 +10032,7 @@
         <v>1062</v>
       </c>
       <c r="H161" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -10106,13 +10052,13 @@
         <v>1278</v>
       </c>
       <c r="F162" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="G162" t="s">
-        <v>1609</v>
+        <v>1601</v>
       </c>
       <c r="H162" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -10138,7 +10084,7 @@
         <v>976</v>
       </c>
       <c r="H163" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -10158,13 +10104,13 @@
         <v>1279</v>
       </c>
       <c r="F164" t="s">
-        <v>1402</v>
+        <v>1372</v>
       </c>
       <c r="G164" t="s">
-        <v>1610</v>
+        <v>1602</v>
       </c>
       <c r="H164" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -10187,10 +10133,10 @@
         <v>1392</v>
       </c>
       <c r="G165" t="s">
-        <v>1611</v>
+        <v>1603</v>
       </c>
       <c r="H165" t="s">
-        <v>1816</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -10210,13 +10156,13 @@
         <v>1278</v>
       </c>
       <c r="F166" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="G166" t="s">
-        <v>1612</v>
+        <v>1604</v>
       </c>
       <c r="H166" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -10236,13 +10182,13 @@
         <v>1279</v>
       </c>
       <c r="F167" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="G167" t="s">
-        <v>1613</v>
+        <v>1605</v>
       </c>
       <c r="H167" t="s">
-        <v>1812</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -10265,10 +10211,10 @@
         <v>1403</v>
       </c>
       <c r="G168" t="s">
-        <v>1614</v>
+        <v>1606</v>
       </c>
       <c r="H168" t="s">
-        <v>1823</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -10288,13 +10234,13 @@
         <v>1300</v>
       </c>
       <c r="F169" t="s">
-        <v>1404</v>
+        <v>1371</v>
       </c>
       <c r="G169" t="s">
-        <v>1615</v>
+        <v>1607</v>
       </c>
       <c r="H169" t="s">
-        <v>1826</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -10314,13 +10260,13 @@
         <v>1306</v>
       </c>
       <c r="F170" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="G170" t="s">
-        <v>1616</v>
+        <v>1608</v>
       </c>
       <c r="H170" t="s">
-        <v>1823</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -10343,10 +10289,10 @@
         <v>1377</v>
       </c>
       <c r="G171" t="s">
-        <v>1617</v>
+        <v>1609</v>
       </c>
       <c r="H171" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -10369,10 +10315,10 @@
         <v>1285</v>
       </c>
       <c r="G172" t="s">
-        <v>1618</v>
+        <v>1610</v>
       </c>
       <c r="H172" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -10392,13 +10338,13 @@
         <v>1296</v>
       </c>
       <c r="F173" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="G173" t="s">
-        <v>1619</v>
+        <v>1611</v>
       </c>
       <c r="H173" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -10421,10 +10367,10 @@
         <v>1278</v>
       </c>
       <c r="G174" t="s">
-        <v>1620</v>
+        <v>1594</v>
       </c>
       <c r="H174" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -10444,13 +10390,13 @@
         <v>1307</v>
       </c>
       <c r="F175" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="G175" t="s">
-        <v>1621</v>
+        <v>1612</v>
       </c>
       <c r="H175" t="s">
-        <v>1816</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -10473,10 +10419,10 @@
         <v>1294</v>
       </c>
       <c r="G176" t="s">
-        <v>1566</v>
+        <v>1559</v>
       </c>
       <c r="H176" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -10496,13 +10442,13 @@
         <v>1284</v>
       </c>
       <c r="F177" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="G177" t="s">
-        <v>1622</v>
+        <v>1613</v>
       </c>
       <c r="H177" t="s">
-        <v>1821</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -10522,13 +10468,13 @@
         <v>1308</v>
       </c>
       <c r="F178" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="G178" t="s">
-        <v>1623</v>
+        <v>1614</v>
       </c>
       <c r="H178" t="s">
-        <v>1832</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -10548,13 +10494,13 @@
         <v>1309</v>
       </c>
       <c r="F179" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="G179" t="s">
-        <v>1624</v>
+        <v>1615</v>
       </c>
       <c r="H179" t="s">
-        <v>1823</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -10574,13 +10520,13 @@
         <v>1293</v>
       </c>
       <c r="F180" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="G180" t="s">
-        <v>1625</v>
+        <v>1616</v>
       </c>
       <c r="H180" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -10600,13 +10546,13 @@
         <v>1277</v>
       </c>
       <c r="F181" t="s">
-        <v>1342</v>
+        <v>1397</v>
       </c>
       <c r="G181" t="s">
-        <v>1626</v>
+        <v>1617</v>
       </c>
       <c r="H181" t="s">
-        <v>1826</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -10632,7 +10578,7 @@
         <v>989</v>
       </c>
       <c r="H182" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -10655,10 +10601,10 @@
         <v>1294</v>
       </c>
       <c r="G183" t="s">
-        <v>1513</v>
+        <v>1505</v>
       </c>
       <c r="H183" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -10678,13 +10624,13 @@
         <v>1278</v>
       </c>
       <c r="F184" t="s">
-        <v>1278</v>
+        <v>1354</v>
       </c>
       <c r="G184" t="s">
-        <v>1627</v>
+        <v>1618</v>
       </c>
       <c r="H184" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -10704,13 +10650,13 @@
         <v>1310</v>
       </c>
       <c r="F185" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G185" t="s">
-        <v>1508</v>
+        <v>1500</v>
       </c>
       <c r="H185" t="s">
-        <v>1826</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -10733,10 +10679,10 @@
         <v>1377</v>
       </c>
       <c r="G186" t="s">
-        <v>1628</v>
+        <v>1619</v>
       </c>
       <c r="H186" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -10756,13 +10702,13 @@
         <v>1278</v>
       </c>
       <c r="F187" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="G187" t="s">
-        <v>1572</v>
+        <v>1565</v>
       </c>
       <c r="H187" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -10788,7 +10734,7 @@
         <v>989</v>
       </c>
       <c r="H188" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -10808,13 +10754,13 @@
         <v>1300</v>
       </c>
       <c r="F189" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G189" t="s">
-        <v>1629</v>
+        <v>1620</v>
       </c>
       <c r="H189" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -10840,7 +10786,7 @@
         <v>933</v>
       </c>
       <c r="H190" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -10863,10 +10809,10 @@
         <v>1377</v>
       </c>
       <c r="G191" t="s">
-        <v>1630</v>
+        <v>1621</v>
       </c>
       <c r="H191" t="s">
-        <v>1812</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -10889,10 +10835,10 @@
         <v>1373</v>
       </c>
       <c r="G192" t="s">
-        <v>1631</v>
+        <v>1622</v>
       </c>
       <c r="H192" t="s">
-        <v>1812</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -10912,13 +10858,13 @@
         <v>1284</v>
       </c>
       <c r="F193" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="G193" t="s">
-        <v>1632</v>
+        <v>1623</v>
       </c>
       <c r="H193" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -10941,10 +10887,10 @@
         <v>1278</v>
       </c>
       <c r="G194" t="s">
-        <v>1633</v>
+        <v>1624</v>
       </c>
       <c r="H194" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -10970,7 +10916,7 @@
         <v>968</v>
       </c>
       <c r="H195" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -10993,10 +10939,10 @@
         <v>1377</v>
       </c>
       <c r="G196" t="s">
-        <v>1634</v>
+        <v>1625</v>
       </c>
       <c r="H196" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -11022,7 +10968,7 @@
         <v>996</v>
       </c>
       <c r="H197" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -11045,10 +10991,10 @@
         <v>1276</v>
       </c>
       <c r="G198" t="s">
-        <v>1567</v>
+        <v>1560</v>
       </c>
       <c r="H198" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -11068,13 +11014,13 @@
         <v>1278</v>
       </c>
       <c r="F199" t="s">
-        <v>1412</v>
+        <v>1349</v>
       </c>
       <c r="G199" t="s">
-        <v>1635</v>
+        <v>1626</v>
       </c>
       <c r="H199" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -11094,13 +11040,13 @@
         <v>1278</v>
       </c>
       <c r="F200" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="G200" t="s">
-        <v>1636</v>
+        <v>1627</v>
       </c>
       <c r="H200" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -11120,13 +11066,13 @@
         <v>1285</v>
       </c>
       <c r="F201" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="G201" t="s">
-        <v>1637</v>
+        <v>1628</v>
       </c>
       <c r="H201" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -11146,13 +11092,13 @@
         <v>1309</v>
       </c>
       <c r="F202" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="G202" t="s">
-        <v>1638</v>
+        <v>1629</v>
       </c>
       <c r="H202" t="s">
-        <v>1823</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -11175,10 +11121,10 @@
         <v>1377</v>
       </c>
       <c r="G203" t="s">
-        <v>1639</v>
+        <v>1630</v>
       </c>
       <c r="H203" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -11198,13 +11144,13 @@
         <v>1312</v>
       </c>
       <c r="F204" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="G204" t="s">
-        <v>1640</v>
+        <v>1631</v>
       </c>
       <c r="H204" t="s">
-        <v>1829</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -11224,13 +11170,13 @@
         <v>1279</v>
       </c>
       <c r="F205" t="s">
-        <v>1342</v>
+        <v>1372</v>
       </c>
       <c r="G205" t="s">
-        <v>1641</v>
+        <v>1632</v>
       </c>
       <c r="H205" t="s">
-        <v>1812</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -11250,13 +11196,13 @@
         <v>1276</v>
       </c>
       <c r="F206" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="G206" t="s">
-        <v>1642</v>
+        <v>1633</v>
       </c>
       <c r="H206" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -11282,7 +11228,7 @@
         <v>947</v>
       </c>
       <c r="H207" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -11305,10 +11251,10 @@
         <v>1339</v>
       </c>
       <c r="G208" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
       <c r="H208" t="s">
-        <v>1818</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -11334,7 +11280,7 @@
         <v>1046</v>
       </c>
       <c r="H209" t="s">
-        <v>1812</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -11357,10 +11303,10 @@
         <v>1278</v>
       </c>
       <c r="G210" t="s">
-        <v>1644</v>
+        <v>1635</v>
       </c>
       <c r="H210" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -11380,13 +11326,13 @@
         <v>1311</v>
       </c>
       <c r="F211" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="G211" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
       <c r="H211" t="s">
-        <v>1833</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -11406,13 +11352,13 @@
         <v>1278</v>
       </c>
       <c r="F212" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="G212" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
       <c r="H212" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -11435,10 +11381,10 @@
         <v>1278</v>
       </c>
       <c r="G213" t="s">
-        <v>1520</v>
+        <v>1512</v>
       </c>
       <c r="H213" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -11458,13 +11404,13 @@
         <v>1296</v>
       </c>
       <c r="F214" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="G214" t="s">
-        <v>1647</v>
+        <v>1638</v>
       </c>
       <c r="H214" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -11487,10 +11433,10 @@
         <v>1396</v>
       </c>
       <c r="G215" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
       <c r="H215" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -11516,7 +11462,7 @@
         <v>989</v>
       </c>
       <c r="H216" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -11536,13 +11482,13 @@
         <v>1311</v>
       </c>
       <c r="F217" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G217" t="s">
-        <v>1649</v>
+        <v>1640</v>
       </c>
       <c r="H217" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -11562,13 +11508,13 @@
         <v>1281</v>
       </c>
       <c r="F218" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="G218" t="s">
-        <v>1650</v>
+        <v>1641</v>
       </c>
       <c r="H218" t="s">
-        <v>1816</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -11591,10 +11537,10 @@
         <v>1278</v>
       </c>
       <c r="G219" t="s">
-        <v>1597</v>
+        <v>1590</v>
       </c>
       <c r="H219" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -11614,13 +11560,13 @@
         <v>1310</v>
       </c>
       <c r="F220" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="G220" t="s">
-        <v>1651</v>
+        <v>1642</v>
       </c>
       <c r="H220" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -11646,7 +11592,7 @@
         <v>947</v>
       </c>
       <c r="H221" t="s">
-        <v>1816</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -11666,13 +11612,13 @@
         <v>1276</v>
       </c>
       <c r="F222" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="G222" t="s">
-        <v>1652</v>
+        <v>1643</v>
       </c>
       <c r="H222" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -11692,13 +11638,13 @@
         <v>1311</v>
       </c>
       <c r="F223" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="G223" t="s">
-        <v>1653</v>
+        <v>1644</v>
       </c>
       <c r="H223" t="s">
-        <v>1834</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -11718,13 +11664,13 @@
         <v>1314</v>
       </c>
       <c r="F224" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="G224" t="s">
-        <v>1654</v>
+        <v>1645</v>
       </c>
       <c r="H224" t="s">
-        <v>1835</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -11750,7 +11696,7 @@
         <v>1089</v>
       </c>
       <c r="H225" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -11776,7 +11722,7 @@
         <v>931</v>
       </c>
       <c r="H226" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -11802,7 +11748,7 @@
         <v>1089</v>
       </c>
       <c r="H227" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -11825,10 +11771,10 @@
         <v>1392</v>
       </c>
       <c r="G228" t="s">
-        <v>1655</v>
+        <v>1646</v>
       </c>
       <c r="H228" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -11848,13 +11794,13 @@
         <v>1276</v>
       </c>
       <c r="F229" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="G229" t="s">
-        <v>1656</v>
+        <v>1647</v>
       </c>
       <c r="H229" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -11877,10 +11823,10 @@
         <v>1294</v>
       </c>
       <c r="G230" t="s">
-        <v>1657</v>
+        <v>1648</v>
       </c>
       <c r="H230" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -11906,7 +11852,7 @@
         <v>947</v>
       </c>
       <c r="H231" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -11929,10 +11875,10 @@
         <v>1294</v>
       </c>
       <c r="G232" t="s">
-        <v>1658</v>
+        <v>1649</v>
       </c>
       <c r="H232" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -11955,10 +11901,10 @@
         <v>1294</v>
       </c>
       <c r="G233" t="s">
-        <v>1657</v>
+        <v>1648</v>
       </c>
       <c r="H233" t="s">
-        <v>1812</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -11978,13 +11924,13 @@
         <v>1285</v>
       </c>
       <c r="F234" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="G234" t="s">
-        <v>1659</v>
+        <v>1650</v>
       </c>
       <c r="H234" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -12004,13 +11950,13 @@
         <v>1300</v>
       </c>
       <c r="F235" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="G235" t="s">
-        <v>1660</v>
+        <v>1651</v>
       </c>
       <c r="H235" t="s">
-        <v>1818</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -12030,13 +11976,13 @@
         <v>1285</v>
       </c>
       <c r="F236" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="G236" t="s">
-        <v>1661</v>
+        <v>1652</v>
       </c>
       <c r="H236" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -12056,13 +12002,13 @@
         <v>1285</v>
       </c>
       <c r="F237" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="G237" t="s">
-        <v>1662</v>
+        <v>1653</v>
       </c>
       <c r="H237" t="s">
-        <v>1816</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -12082,13 +12028,13 @@
         <v>1316</v>
       </c>
       <c r="F238" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="G238" t="s">
-        <v>1663</v>
+        <v>1654</v>
       </c>
       <c r="H238" t="s">
-        <v>1816</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -12108,13 +12054,13 @@
         <v>1285</v>
       </c>
       <c r="F239" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G239" t="s">
-        <v>1571</v>
+        <v>1564</v>
       </c>
       <c r="H239" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -12134,13 +12080,13 @@
         <v>1317</v>
       </c>
       <c r="F240" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="G240" t="s">
-        <v>1664</v>
+        <v>1655</v>
       </c>
       <c r="H240" t="s">
-        <v>1823</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -12163,10 +12109,10 @@
         <v>1276</v>
       </c>
       <c r="G241" t="s">
-        <v>1496</v>
+        <v>1490</v>
       </c>
       <c r="H241" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -12186,13 +12132,13 @@
         <v>1318</v>
       </c>
       <c r="F242" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="G242" t="s">
-        <v>1559</v>
+        <v>1552</v>
       </c>
       <c r="H242" t="s">
-        <v>1816</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -12215,10 +12161,10 @@
         <v>1382</v>
       </c>
       <c r="G243" t="s">
-        <v>1665</v>
+        <v>1656</v>
       </c>
       <c r="H243" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -12238,13 +12184,13 @@
         <v>1276</v>
       </c>
       <c r="F244" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="G244" t="s">
-        <v>1666</v>
+        <v>1657</v>
       </c>
       <c r="H244" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -12264,13 +12210,13 @@
         <v>1276</v>
       </c>
       <c r="F245" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="G245" t="s">
-        <v>1667</v>
+        <v>1658</v>
       </c>
       <c r="H245" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -12296,7 +12242,7 @@
         <v>931</v>
       </c>
       <c r="H246" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -12316,13 +12262,13 @@
         <v>1310</v>
       </c>
       <c r="F247" t="s">
-        <v>1430</v>
+        <v>1363</v>
       </c>
       <c r="G247" t="s">
-        <v>1668</v>
+        <v>1659</v>
       </c>
       <c r="H247" t="s">
-        <v>1812</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -12348,7 +12294,7 @@
         <v>985</v>
       </c>
       <c r="H248" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -12368,13 +12314,13 @@
         <v>1305</v>
       </c>
       <c r="F249" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="G249" t="s">
-        <v>1669</v>
+        <v>1660</v>
       </c>
       <c r="H249" t="s">
-        <v>1817</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -12397,10 +12343,10 @@
         <v>1339</v>
       </c>
       <c r="G250" t="s">
-        <v>1670</v>
+        <v>1661</v>
       </c>
       <c r="H250" t="s">
-        <v>1812</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -12420,13 +12366,13 @@
         <v>1300</v>
       </c>
       <c r="F251" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="G251" t="s">
-        <v>1671</v>
+        <v>1662</v>
       </c>
       <c r="H251" t="s">
-        <v>1818</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -12446,13 +12392,13 @@
         <v>1276</v>
       </c>
       <c r="F252" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="G252" t="s">
-        <v>1672</v>
+        <v>1663</v>
       </c>
       <c r="H252" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -12472,13 +12418,13 @@
         <v>1276</v>
       </c>
       <c r="F253" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="G253" t="s">
-        <v>1673</v>
+        <v>1664</v>
       </c>
       <c r="H253" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -12504,7 +12450,7 @@
         <v>947</v>
       </c>
       <c r="H254" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -12524,13 +12470,13 @@
         <v>1276</v>
       </c>
       <c r="F255" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="G255" t="s">
-        <v>1674</v>
+        <v>1665</v>
       </c>
       <c r="H255" t="s">
-        <v>1826</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -12553,10 +12499,10 @@
         <v>1294</v>
       </c>
       <c r="G256" t="s">
-        <v>1657</v>
+        <v>1648</v>
       </c>
       <c r="H256" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -12576,13 +12522,13 @@
         <v>1286</v>
       </c>
       <c r="F257" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="G257" t="s">
-        <v>1510</v>
+        <v>1502</v>
       </c>
       <c r="H257" t="s">
-        <v>1816</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -12602,13 +12548,13 @@
         <v>1279</v>
       </c>
       <c r="F258" t="s">
-        <v>1376</v>
+        <v>1412</v>
       </c>
       <c r="G258" t="s">
-        <v>1675</v>
+        <v>1666</v>
       </c>
       <c r="H258" t="s">
-        <v>1812</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -12634,7 +12580,7 @@
         <v>1065</v>
       </c>
       <c r="H259" t="s">
-        <v>1818</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -12657,10 +12603,10 @@
         <v>1294</v>
       </c>
       <c r="G260" t="s">
-        <v>1657</v>
+        <v>1648</v>
       </c>
       <c r="H260" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -12680,13 +12626,13 @@
         <v>1285</v>
       </c>
       <c r="F261" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="G261" t="s">
-        <v>1676</v>
+        <v>1667</v>
       </c>
       <c r="H261" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -12712,7 +12658,7 @@
         <v>968</v>
       </c>
       <c r="H262" t="s">
-        <v>1812</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -12732,13 +12678,13 @@
         <v>1300</v>
       </c>
       <c r="F263" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="G263" t="s">
-        <v>1677</v>
+        <v>1668</v>
       </c>
       <c r="H263" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -12758,13 +12704,13 @@
         <v>1276</v>
       </c>
       <c r="F264" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="G264" t="s">
-        <v>1678</v>
+        <v>1669</v>
       </c>
       <c r="H264" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -12784,13 +12730,13 @@
         <v>1311</v>
       </c>
       <c r="F265" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="G265" t="s">
-        <v>1679</v>
+        <v>1670</v>
       </c>
       <c r="H265" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -12810,13 +12756,13 @@
         <v>1294</v>
       </c>
       <c r="F266" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="G266" t="s">
-        <v>1680</v>
+        <v>1671</v>
       </c>
       <c r="H266" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -12836,13 +12782,13 @@
         <v>1279</v>
       </c>
       <c r="F267" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="G267" t="s">
-        <v>1681</v>
+        <v>1672</v>
       </c>
       <c r="H267" t="s">
-        <v>1818</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -12862,13 +12808,13 @@
         <v>1286</v>
       </c>
       <c r="F268" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="G268" t="s">
-        <v>1682</v>
+        <v>1673</v>
       </c>
       <c r="H268" t="s">
-        <v>1822</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -12888,13 +12834,13 @@
         <v>1276</v>
       </c>
       <c r="F269" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="G269" t="s">
-        <v>1683</v>
+        <v>1674</v>
       </c>
       <c r="H269" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -12920,7 +12866,7 @@
         <v>985</v>
       </c>
       <c r="H270" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -12940,13 +12886,13 @@
         <v>1304</v>
       </c>
       <c r="F271" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="G271" t="s">
-        <v>1684</v>
+        <v>1675</v>
       </c>
       <c r="H271" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -12966,13 +12912,13 @@
         <v>1286</v>
       </c>
       <c r="F272" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="G272" t="s">
-        <v>1685</v>
+        <v>1676</v>
       </c>
       <c r="H272" t="s">
-        <v>1816</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -12992,13 +12938,13 @@
         <v>1279</v>
       </c>
       <c r="F273" t="s">
-        <v>1342</v>
+        <v>1397</v>
       </c>
       <c r="G273" t="s">
-        <v>1686</v>
+        <v>1677</v>
       </c>
       <c r="H273" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -13018,13 +12964,13 @@
         <v>1285</v>
       </c>
       <c r="F274" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="G274" t="s">
-        <v>1687</v>
+        <v>1678</v>
       </c>
       <c r="H274" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -13044,13 +12990,13 @@
         <v>1319</v>
       </c>
       <c r="F275" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="G275" t="s">
-        <v>1688</v>
+        <v>1679</v>
       </c>
       <c r="H275" t="s">
-        <v>1816</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -13070,13 +13016,13 @@
         <v>1276</v>
       </c>
       <c r="F276" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="G276" t="s">
-        <v>1689</v>
+        <v>1680</v>
       </c>
       <c r="H276" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -13099,10 +13045,10 @@
         <v>1285</v>
       </c>
       <c r="G277" t="s">
-        <v>1520</v>
+        <v>1512</v>
       </c>
       <c r="H277" t="s">
-        <v>1826</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -13122,13 +13068,13 @@
         <v>1276</v>
       </c>
       <c r="F278" t="s">
-        <v>1444</v>
+        <v>1420</v>
       </c>
       <c r="G278" t="s">
-        <v>1690</v>
+        <v>1681</v>
       </c>
       <c r="H278" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -13151,10 +13097,10 @@
         <v>1394</v>
       </c>
       <c r="G279" t="s">
-        <v>1691</v>
+        <v>1682</v>
       </c>
       <c r="H279" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -13174,13 +13120,13 @@
         <v>1276</v>
       </c>
       <c r="F280" t="s">
-        <v>1402</v>
+        <v>1278</v>
       </c>
       <c r="G280" t="s">
-        <v>1692</v>
+        <v>1227</v>
       </c>
       <c r="H280" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -13203,7 +13149,7 @@
         <v>985</v>
       </c>
       <c r="H281" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -13223,13 +13169,13 @@
         <v>1276</v>
       </c>
       <c r="F282" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="G282" t="s">
-        <v>1693</v>
+        <v>1683</v>
       </c>
       <c r="H282" t="s">
-        <v>1826</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -13255,7 +13201,7 @@
         <v>1211</v>
       </c>
       <c r="H283" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -13275,13 +13221,13 @@
         <v>1320</v>
       </c>
       <c r="F284" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="G284" t="s">
-        <v>1694</v>
+        <v>1684</v>
       </c>
       <c r="H284" t="s">
-        <v>1816</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -13301,13 +13247,13 @@
         <v>1276</v>
       </c>
       <c r="F285" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="G285" t="s">
-        <v>1695</v>
+        <v>1685</v>
       </c>
       <c r="H285" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -13327,13 +13273,13 @@
         <v>1276</v>
       </c>
       <c r="F286" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="G286" t="s">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="H286" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -13353,13 +13299,13 @@
         <v>1279</v>
       </c>
       <c r="F287" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="G287" t="s">
-        <v>1697</v>
+        <v>1687</v>
       </c>
       <c r="H287" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -13382,10 +13328,10 @@
         <v>1294</v>
       </c>
       <c r="G288" t="s">
-        <v>1566</v>
+        <v>1559</v>
       </c>
       <c r="H288" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -13408,10 +13354,10 @@
         <v>1285</v>
       </c>
       <c r="G289" t="s">
-        <v>1618</v>
+        <v>1610</v>
       </c>
       <c r="H289" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -13431,13 +13377,13 @@
         <v>1321</v>
       </c>
       <c r="F290" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="G290" t="s">
-        <v>1698</v>
+        <v>1688</v>
       </c>
       <c r="H290" t="s">
-        <v>1822</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -13457,13 +13403,13 @@
         <v>1276</v>
       </c>
       <c r="F291" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="G291" t="s">
-        <v>1699</v>
+        <v>1689</v>
       </c>
       <c r="H291" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -13483,13 +13429,13 @@
         <v>1276</v>
       </c>
       <c r="F292" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="G292" t="s">
-        <v>1700</v>
+        <v>1690</v>
       </c>
       <c r="H292" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -13509,13 +13455,13 @@
         <v>1298</v>
       </c>
       <c r="F293" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="G293" t="s">
-        <v>1701</v>
+        <v>1691</v>
       </c>
       <c r="H293" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -13538,10 +13484,10 @@
         <v>1377</v>
       </c>
       <c r="G294" t="s">
-        <v>1628</v>
+        <v>1619</v>
       </c>
       <c r="H294" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -13567,7 +13513,7 @@
         <v>947</v>
       </c>
       <c r="H295" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -13590,10 +13536,10 @@
         <v>1340</v>
       </c>
       <c r="G296" t="s">
-        <v>1585</v>
+        <v>1578</v>
       </c>
       <c r="H296" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -13616,10 +13562,10 @@
         <v>1276</v>
       </c>
       <c r="G297" t="s">
-        <v>1496</v>
+        <v>1490</v>
       </c>
       <c r="H297" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -13639,13 +13585,13 @@
         <v>1294</v>
       </c>
       <c r="F298" t="s">
-        <v>1376</v>
+        <v>1412</v>
       </c>
       <c r="G298" t="s">
-        <v>1702</v>
+        <v>1692</v>
       </c>
       <c r="H298" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -13665,13 +13611,13 @@
         <v>1276</v>
       </c>
       <c r="F299" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="G299" t="s">
-        <v>1703</v>
+        <v>1693</v>
       </c>
       <c r="H299" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -13691,13 +13637,13 @@
         <v>1276</v>
       </c>
       <c r="F300" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="G300" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="H300" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -13717,13 +13663,13 @@
         <v>1285</v>
       </c>
       <c r="F301" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="G301" t="s">
-        <v>1705</v>
+        <v>1695</v>
       </c>
       <c r="H301" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -13743,13 +13689,13 @@
         <v>1279</v>
       </c>
       <c r="F302" t="s">
-        <v>1342</v>
+        <v>1397</v>
       </c>
       <c r="G302" t="s">
-        <v>1706</v>
+        <v>1696</v>
       </c>
       <c r="H302" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -13769,13 +13715,13 @@
         <v>1276</v>
       </c>
       <c r="F303" t="s">
-        <v>1340</v>
+        <v>1276</v>
       </c>
       <c r="G303" t="s">
-        <v>1707</v>
+        <v>985</v>
       </c>
       <c r="H303" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -13801,7 +13747,7 @@
         <v>1000</v>
       </c>
       <c r="H304" t="s">
-        <v>1812</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -13827,7 +13773,7 @@
         <v>933</v>
       </c>
       <c r="H305" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -13847,13 +13793,13 @@
         <v>1276</v>
       </c>
       <c r="F306" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="G306" t="s">
-        <v>1708</v>
+        <v>1697</v>
       </c>
       <c r="H306" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -13879,7 +13825,7 @@
         <v>947</v>
       </c>
       <c r="H307" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -13902,10 +13848,10 @@
         <v>1392</v>
       </c>
       <c r="G308" t="s">
-        <v>1709</v>
+        <v>1698</v>
       </c>
       <c r="H308" t="s">
-        <v>1812</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -13931,7 +13877,7 @@
         <v>1089</v>
       </c>
       <c r="H309" t="s">
-        <v>1815</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -13957,7 +13903,7 @@
         <v>1089</v>
       </c>
       <c r="H310" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -13983,7 +13929,7 @@
         <v>968</v>
       </c>
       <c r="H311" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -14006,10 +13952,10 @@
         <v>1377</v>
       </c>
       <c r="G312" t="s">
-        <v>1710</v>
+        <v>1699</v>
       </c>
       <c r="H312" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -14029,13 +13975,13 @@
         <v>1276</v>
       </c>
       <c r="F313" t="s">
-        <v>1340</v>
+        <v>1276</v>
       </c>
       <c r="G313" t="s">
-        <v>1711</v>
+        <v>947</v>
       </c>
       <c r="H313" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -14061,7 +14007,7 @@
         <v>947</v>
       </c>
       <c r="H314" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -14084,10 +14030,10 @@
         <v>1376</v>
       </c>
       <c r="G315" t="s">
-        <v>1712</v>
+        <v>1700</v>
       </c>
       <c r="H315" t="s">
-        <v>1812</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -14107,13 +14053,13 @@
         <v>1276</v>
       </c>
       <c r="F316" t="s">
-        <v>1354</v>
+        <v>1448</v>
       </c>
       <c r="G316" t="s">
-        <v>1713</v>
+        <v>1701</v>
       </c>
       <c r="H316" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -14136,10 +14082,10 @@
         <v>1340</v>
       </c>
       <c r="G317" t="s">
-        <v>1585</v>
+        <v>1578</v>
       </c>
       <c r="H317" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -14159,13 +14105,13 @@
         <v>1279</v>
       </c>
       <c r="F318" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="G318" t="s">
-        <v>1510</v>
+        <v>1502</v>
       </c>
       <c r="H318" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -14184,8 +14130,14 @@
       <c r="E319" t="s">
         <v>1285</v>
       </c>
+      <c r="F319" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G319" t="s">
+        <v>1171</v>
+      </c>
       <c r="H319" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -14208,10 +14160,10 @@
         <v>1377</v>
       </c>
       <c r="G320" t="s">
-        <v>1714</v>
+        <v>1702</v>
       </c>
       <c r="H320" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -14231,13 +14183,13 @@
         <v>1315</v>
       </c>
       <c r="F321" t="s">
-        <v>1377</v>
+        <v>1398</v>
       </c>
       <c r="G321" t="s">
-        <v>1715</v>
+        <v>1703</v>
       </c>
       <c r="H321" t="s">
-        <v>1812</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -14257,13 +14209,13 @@
         <v>1285</v>
       </c>
       <c r="F322" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="G322" t="s">
-        <v>1716</v>
+        <v>1704</v>
       </c>
       <c r="H322" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -14283,13 +14235,13 @@
         <v>1310</v>
       </c>
       <c r="F323" t="s">
-        <v>1343</v>
+        <v>1369</v>
       </c>
       <c r="G323" t="s">
-        <v>1717</v>
+        <v>1705</v>
       </c>
       <c r="H323" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -14309,13 +14261,13 @@
         <v>1279</v>
       </c>
       <c r="F324" t="s">
-        <v>1342</v>
+        <v>1397</v>
       </c>
       <c r="G324" t="s">
-        <v>1718</v>
+        <v>1706</v>
       </c>
       <c r="H324" t="s">
-        <v>1821</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -14341,7 +14293,7 @@
         <v>947</v>
       </c>
       <c r="H325" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -14367,7 +14319,7 @@
         <v>1089</v>
       </c>
       <c r="H326" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -14387,13 +14339,13 @@
         <v>1276</v>
       </c>
       <c r="F327" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="G327" t="s">
-        <v>1719</v>
+        <v>1707</v>
       </c>
       <c r="H327" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -14413,13 +14365,13 @@
         <v>1285</v>
       </c>
       <c r="F328" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="G328" t="s">
-        <v>1720</v>
+        <v>1708</v>
       </c>
       <c r="H328" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -14439,13 +14391,13 @@
         <v>1323</v>
       </c>
       <c r="F329" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="G329" t="s">
-        <v>1721</v>
+        <v>1709</v>
       </c>
       <c r="H329" t="s">
-        <v>1836</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -14468,10 +14420,10 @@
         <v>1294</v>
       </c>
       <c r="G330" t="s">
-        <v>1513</v>
+        <v>1505</v>
       </c>
       <c r="H330" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -14491,13 +14443,13 @@
         <v>1297</v>
       </c>
       <c r="F331" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="G331" t="s">
-        <v>1722</v>
+        <v>1710</v>
       </c>
       <c r="H331" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -14520,10 +14472,10 @@
         <v>1285</v>
       </c>
       <c r="G332" t="s">
-        <v>1560</v>
+        <v>1553</v>
       </c>
       <c r="H332" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -14543,13 +14495,13 @@
         <v>1276</v>
       </c>
       <c r="F333" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="G333" t="s">
-        <v>1723</v>
+        <v>1711</v>
       </c>
       <c r="H333" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -14572,10 +14524,10 @@
         <v>1285</v>
       </c>
       <c r="G334" t="s">
-        <v>1724</v>
+        <v>1712</v>
       </c>
       <c r="H334" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -14598,10 +14550,10 @@
         <v>1383</v>
       </c>
       <c r="G335" t="s">
-        <v>1725</v>
+        <v>1713</v>
       </c>
       <c r="H335" t="s">
-        <v>1826</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -14621,13 +14573,13 @@
         <v>1311</v>
       </c>
       <c r="F336" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="G336" t="s">
-        <v>1726</v>
+        <v>1714</v>
       </c>
       <c r="H336" t="s">
-        <v>1815</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -14650,10 +14602,10 @@
         <v>1373</v>
       </c>
       <c r="G337" t="s">
-        <v>1727</v>
+        <v>1715</v>
       </c>
       <c r="H337" t="s">
-        <v>1821</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -14673,13 +14625,13 @@
         <v>1297</v>
       </c>
       <c r="F338" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="G338" t="s">
-        <v>1728</v>
+        <v>1716</v>
       </c>
       <c r="H338" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -14699,13 +14651,13 @@
         <v>1276</v>
       </c>
       <c r="F339" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="G339" t="s">
-        <v>1729</v>
+        <v>1717</v>
       </c>
       <c r="H339" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -14728,10 +14680,10 @@
         <v>1294</v>
       </c>
       <c r="G340" t="s">
-        <v>1730</v>
+        <v>1718</v>
       </c>
       <c r="H340" t="s">
-        <v>1812</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -14751,13 +14703,13 @@
         <v>1317</v>
       </c>
       <c r="F341" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="G341" t="s">
-        <v>1731</v>
+        <v>1719</v>
       </c>
       <c r="H341" t="s">
-        <v>1837</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -14777,13 +14729,13 @@
         <v>1276</v>
       </c>
       <c r="F342" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G342" t="s">
-        <v>1508</v>
+        <v>1500</v>
       </c>
       <c r="H342" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -14803,13 +14755,13 @@
         <v>1300</v>
       </c>
       <c r="F343" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="G343" t="s">
-        <v>1732</v>
+        <v>1720</v>
       </c>
       <c r="H343" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -14829,13 +14781,13 @@
         <v>1324</v>
       </c>
       <c r="F344" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="G344" t="s">
-        <v>1733</v>
+        <v>1721</v>
       </c>
       <c r="H344" t="s">
-        <v>1816</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -14855,13 +14807,13 @@
         <v>1279</v>
       </c>
       <c r="F345" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="G345" t="s">
-        <v>1637</v>
+        <v>1628</v>
       </c>
       <c r="H345" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -14881,13 +14833,13 @@
         <v>1300</v>
       </c>
       <c r="F346" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="G346" t="s">
-        <v>1734</v>
+        <v>1722</v>
       </c>
       <c r="H346" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -14910,10 +14862,10 @@
         <v>1340</v>
       </c>
       <c r="G347" t="s">
-        <v>1735</v>
+        <v>1723</v>
       </c>
       <c r="H347" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -14939,7 +14891,7 @@
         <v>985</v>
       </c>
       <c r="H348" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -14965,7 +14917,7 @@
         <v>1089</v>
       </c>
       <c r="H349" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -14985,13 +14937,13 @@
         <v>1276</v>
       </c>
       <c r="F350" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G350" t="s">
-        <v>1508</v>
+        <v>1500</v>
       </c>
       <c r="H350" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -15011,13 +14963,13 @@
         <v>1279</v>
       </c>
       <c r="F351" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="G351" t="s">
-        <v>1736</v>
+        <v>1724</v>
       </c>
       <c r="H351" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -15037,13 +14989,13 @@
         <v>1322</v>
       </c>
       <c r="F352" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="G352" t="s">
-        <v>1737</v>
+        <v>1725</v>
       </c>
       <c r="H352" t="s">
-        <v>1825</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -15069,7 +15021,7 @@
         <v>968</v>
       </c>
       <c r="H353" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -15089,13 +15041,13 @@
         <v>1276</v>
       </c>
       <c r="F354" t="s">
-        <v>1343</v>
+        <v>1276</v>
       </c>
       <c r="G354" t="s">
-        <v>1738</v>
+        <v>985</v>
       </c>
       <c r="H354" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -15118,10 +15070,10 @@
         <v>1285</v>
       </c>
       <c r="G355" t="s">
-        <v>1724</v>
+        <v>1712</v>
       </c>
       <c r="H355" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -15147,7 +15099,7 @@
         <v>947</v>
       </c>
       <c r="H356" t="s">
-        <v>1818</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -15167,13 +15119,13 @@
         <v>1325</v>
       </c>
       <c r="F357" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
       <c r="G357" t="s">
-        <v>1739</v>
+        <v>1726</v>
       </c>
       <c r="H357" t="s">
-        <v>1838</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -15193,13 +15145,13 @@
         <v>1276</v>
       </c>
       <c r="F358" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G358" t="s">
-        <v>1508</v>
+        <v>1500</v>
       </c>
       <c r="H358" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -15222,10 +15174,10 @@
         <v>1276</v>
       </c>
       <c r="G359" t="s">
-        <v>1584</v>
+        <v>1577</v>
       </c>
       <c r="H359" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -15251,7 +15203,7 @@
         <v>985</v>
       </c>
       <c r="H360" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -15271,13 +15223,13 @@
         <v>1279</v>
       </c>
       <c r="F361" t="s">
-        <v>1462</v>
+        <v>1354</v>
       </c>
       <c r="G361" t="s">
-        <v>1740</v>
+        <v>1544</v>
       </c>
       <c r="H361" t="s">
-        <v>1816</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -15300,10 +15252,10 @@
         <v>1285</v>
       </c>
       <c r="G362" t="s">
-        <v>1576</v>
+        <v>1569</v>
       </c>
       <c r="H362" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -15323,13 +15275,13 @@
         <v>1286</v>
       </c>
       <c r="F363" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="G363" t="s">
-        <v>1741</v>
+        <v>1727</v>
       </c>
       <c r="H363" t="s">
-        <v>1816</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -15349,13 +15301,13 @@
         <v>1279</v>
       </c>
       <c r="F364" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="G364" t="s">
-        <v>1742</v>
+        <v>1728</v>
       </c>
       <c r="H364" t="s">
-        <v>1818</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -15375,13 +15327,13 @@
         <v>1279</v>
       </c>
       <c r="F365" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="G365" t="s">
-        <v>1743</v>
+        <v>1729</v>
       </c>
       <c r="H365" t="s">
-        <v>1839</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -15404,10 +15356,10 @@
         <v>1377</v>
       </c>
       <c r="G366" t="s">
-        <v>1710</v>
+        <v>1699</v>
       </c>
       <c r="H366" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -15430,10 +15382,10 @@
         <v>1339</v>
       </c>
       <c r="G367" t="s">
-        <v>1577</v>
+        <v>1570</v>
       </c>
       <c r="H367" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -15453,13 +15405,13 @@
         <v>1298</v>
       </c>
       <c r="F368" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="G368" t="s">
-        <v>1744</v>
+        <v>1730</v>
       </c>
       <c r="H368" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -15482,10 +15434,10 @@
         <v>1339</v>
       </c>
       <c r="G369" t="s">
-        <v>1495</v>
+        <v>1489</v>
       </c>
       <c r="H369" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -15504,14 +15456,8 @@
       <c r="E370" t="s">
         <v>1285</v>
       </c>
-      <c r="F370" t="s">
-        <v>1278</v>
-      </c>
-      <c r="G370" t="s">
-        <v>1600</v>
-      </c>
       <c r="H370" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -15531,13 +15477,13 @@
         <v>1279</v>
       </c>
       <c r="F371" t="s">
-        <v>1342</v>
+        <v>1397</v>
       </c>
       <c r="G371" t="s">
-        <v>1745</v>
+        <v>1731</v>
       </c>
       <c r="H371" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -15560,10 +15506,10 @@
         <v>1381</v>
       </c>
       <c r="G372" t="s">
-        <v>1746</v>
+        <v>1732</v>
       </c>
       <c r="H372" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -15583,13 +15529,13 @@
         <v>1285</v>
       </c>
       <c r="F373" t="s">
-        <v>1361</v>
+        <v>1408</v>
       </c>
       <c r="G373" t="s">
-        <v>1747</v>
+        <v>1733</v>
       </c>
       <c r="H373" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -15609,7 +15555,7 @@
         <v>1285</v>
       </c>
       <c r="H374" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -15635,7 +15581,7 @@
         <v>1211</v>
       </c>
       <c r="H375" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -15655,13 +15601,13 @@
         <v>1279</v>
       </c>
       <c r="F376" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="G376" t="s">
-        <v>1748</v>
+        <v>1734</v>
       </c>
       <c r="H376" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -15681,13 +15627,13 @@
         <v>1279</v>
       </c>
       <c r="F377" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="G377" t="s">
-        <v>1749</v>
+        <v>1735</v>
       </c>
       <c r="H377" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -15707,13 +15653,13 @@
         <v>1285</v>
       </c>
       <c r="F378" t="s">
-        <v>1414</v>
+        <v>1398</v>
       </c>
       <c r="G378" t="s">
-        <v>1750</v>
+        <v>1736</v>
       </c>
       <c r="H378" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -15733,13 +15679,13 @@
         <v>1326</v>
       </c>
       <c r="F379" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="G379" t="s">
-        <v>1751</v>
+        <v>1737</v>
       </c>
       <c r="H379" t="s">
-        <v>1823</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -15762,10 +15708,10 @@
         <v>1377</v>
       </c>
       <c r="G380" t="s">
-        <v>1752</v>
+        <v>1738</v>
       </c>
       <c r="H380" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -15788,10 +15734,10 @@
         <v>1294</v>
       </c>
       <c r="G381" t="s">
-        <v>1657</v>
+        <v>1648</v>
       </c>
       <c r="H381" t="s">
-        <v>1815</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -15811,13 +15757,13 @@
         <v>1327</v>
       </c>
       <c r="F382" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="G382" t="s">
-        <v>1753</v>
+        <v>1739</v>
       </c>
       <c r="H382" t="s">
-        <v>1840</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -15837,13 +15783,13 @@
         <v>1328</v>
       </c>
       <c r="F383" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="G383" t="s">
-        <v>1754</v>
+        <v>1740</v>
       </c>
       <c r="H383" t="s">
-        <v>1831</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -15863,13 +15809,13 @@
         <v>1329</v>
       </c>
       <c r="F384" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="G384" t="s">
-        <v>1755</v>
+        <v>1741</v>
       </c>
       <c r="H384" t="s">
-        <v>1815</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -15889,13 +15835,13 @@
         <v>1279</v>
       </c>
       <c r="F385" t="s">
-        <v>1342</v>
+        <v>1397</v>
       </c>
       <c r="G385" t="s">
-        <v>1718</v>
+        <v>1706</v>
       </c>
       <c r="H385" t="s">
-        <v>1830</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -15915,13 +15861,13 @@
         <v>1325</v>
       </c>
       <c r="F386" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="G386" t="s">
-        <v>1756</v>
+        <v>1742</v>
       </c>
       <c r="H386" t="s">
-        <v>1816</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -15941,13 +15887,13 @@
         <v>1294</v>
       </c>
       <c r="F387" t="s">
-        <v>1342</v>
+        <v>1397</v>
       </c>
       <c r="G387" t="s">
-        <v>1757</v>
+        <v>1743</v>
       </c>
       <c r="H387" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -15970,10 +15916,10 @@
         <v>1377</v>
       </c>
       <c r="G388" t="s">
-        <v>1628</v>
+        <v>1619</v>
       </c>
       <c r="H388" t="s">
-        <v>1816</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -15996,10 +15942,10 @@
         <v>1377</v>
       </c>
       <c r="G389" t="s">
-        <v>1607</v>
+        <v>1599</v>
       </c>
       <c r="H389" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -16022,10 +15968,10 @@
         <v>1383</v>
       </c>
       <c r="G390" t="s">
-        <v>1758</v>
+        <v>1744</v>
       </c>
       <c r="H390" t="s">
-        <v>1812</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -16048,10 +15994,10 @@
         <v>1340</v>
       </c>
       <c r="G391" t="s">
-        <v>1759</v>
+        <v>1745</v>
       </c>
       <c r="H391" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -16074,10 +16020,10 @@
         <v>1377</v>
       </c>
       <c r="G392" t="s">
-        <v>1760</v>
+        <v>1746</v>
       </c>
       <c r="H392" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -16097,13 +16043,13 @@
         <v>1279</v>
       </c>
       <c r="F393" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="G393" t="s">
-        <v>1761</v>
+        <v>1747</v>
       </c>
       <c r="H393" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -16123,13 +16069,13 @@
         <v>1285</v>
       </c>
       <c r="F394" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="G394" t="s">
-        <v>1762</v>
+        <v>1748</v>
       </c>
       <c r="H394" t="s">
-        <v>1825</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -16149,13 +16095,13 @@
         <v>1285</v>
       </c>
       <c r="F395" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="G395" t="s">
-        <v>1763</v>
+        <v>1749</v>
       </c>
       <c r="H395" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -16175,13 +16121,13 @@
         <v>1285</v>
       </c>
       <c r="F396" t="s">
-        <v>1472</v>
+        <v>1446</v>
       </c>
       <c r="G396" t="s">
-        <v>1764</v>
+        <v>1750</v>
       </c>
       <c r="H396" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -16201,13 +16147,13 @@
         <v>1279</v>
       </c>
       <c r="F397" t="s">
-        <v>1473</v>
+        <v>1468</v>
       </c>
       <c r="G397" t="s">
-        <v>1765</v>
+        <v>1751</v>
       </c>
       <c r="H397" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -16233,7 +16179,7 @@
         <v>1089</v>
       </c>
       <c r="H398" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -16253,13 +16199,13 @@
         <v>1285</v>
       </c>
       <c r="F399" t="s">
-        <v>1474</v>
+        <v>1469</v>
       </c>
       <c r="G399" t="s">
-        <v>1766</v>
+        <v>1752</v>
       </c>
       <c r="H399" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -16279,13 +16225,13 @@
         <v>1304</v>
       </c>
       <c r="F400" t="s">
-        <v>1475</v>
+        <v>1470</v>
       </c>
       <c r="G400" t="s">
-        <v>1767</v>
+        <v>1753</v>
       </c>
       <c r="H400" t="s">
-        <v>1841</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -16311,7 +16257,7 @@
         <v>1227</v>
       </c>
       <c r="H401" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -16331,13 +16277,13 @@
         <v>1294</v>
       </c>
       <c r="F402" t="s">
-        <v>1342</v>
+        <v>1397</v>
       </c>
       <c r="G402" t="s">
-        <v>1768</v>
+        <v>1754</v>
       </c>
       <c r="H402" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -16357,13 +16303,13 @@
         <v>1285</v>
       </c>
       <c r="F403" t="s">
-        <v>1476</v>
+        <v>1471</v>
       </c>
       <c r="G403" t="s">
-        <v>1769</v>
+        <v>1755</v>
       </c>
       <c r="H403" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -16383,13 +16329,13 @@
         <v>1279</v>
       </c>
       <c r="F404" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="G404" t="s">
-        <v>1770</v>
+        <v>1756</v>
       </c>
       <c r="H404" t="s">
-        <v>1812</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -16409,13 +16355,13 @@
         <v>1325</v>
       </c>
       <c r="F405" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="G405" t="s">
-        <v>1771</v>
+        <v>1757</v>
       </c>
       <c r="H405" t="s">
-        <v>1816</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -16441,7 +16387,7 @@
         <v>1089</v>
       </c>
       <c r="H406" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -16461,13 +16407,13 @@
         <v>1294</v>
       </c>
       <c r="F407" t="s">
-        <v>1477</v>
+        <v>1472</v>
       </c>
       <c r="G407" t="s">
-        <v>1772</v>
+        <v>1758</v>
       </c>
       <c r="H407" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -16490,10 +16436,10 @@
         <v>1285</v>
       </c>
       <c r="G408" t="s">
-        <v>1618</v>
+        <v>1610</v>
       </c>
       <c r="H408" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -16519,7 +16465,7 @@
         <v>968</v>
       </c>
       <c r="H409" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -16545,7 +16491,7 @@
         <v>1234</v>
       </c>
       <c r="H410" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -16565,13 +16511,13 @@
         <v>1324</v>
       </c>
       <c r="F411" t="s">
-        <v>1478</v>
+        <v>1473</v>
       </c>
       <c r="G411" t="s">
-        <v>1773</v>
+        <v>1759</v>
       </c>
       <c r="H411" t="s">
-        <v>1828</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -16594,10 +16540,10 @@
         <v>1285</v>
       </c>
       <c r="G412" t="s">
-        <v>1520</v>
+        <v>1512</v>
       </c>
       <c r="H412" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -16617,13 +16563,13 @@
         <v>1312</v>
       </c>
       <c r="F413" t="s">
-        <v>1342</v>
+        <v>1397</v>
       </c>
       <c r="G413" t="s">
-        <v>1718</v>
+        <v>1706</v>
       </c>
       <c r="H413" t="s">
-        <v>1827</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -16646,10 +16592,10 @@
         <v>1396</v>
       </c>
       <c r="G414" t="s">
-        <v>1774</v>
+        <v>1760</v>
       </c>
       <c r="H414" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -16672,10 +16618,10 @@
         <v>1392</v>
       </c>
       <c r="G415" t="s">
-        <v>1775</v>
+        <v>1761</v>
       </c>
       <c r="H415" t="s">
-        <v>1842</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -16695,13 +16641,13 @@
         <v>1285</v>
       </c>
       <c r="F416" t="s">
-        <v>1479</v>
+        <v>1474</v>
       </c>
       <c r="G416" t="s">
-        <v>1776</v>
+        <v>1762</v>
       </c>
       <c r="H416" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -16724,10 +16670,10 @@
         <v>1294</v>
       </c>
       <c r="G417" t="s">
-        <v>1566</v>
+        <v>1559</v>
       </c>
       <c r="H417" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -16747,13 +16693,13 @@
         <v>1331</v>
       </c>
       <c r="F418" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="G418" t="s">
-        <v>1777</v>
+        <v>1763</v>
       </c>
       <c r="H418" t="s">
-        <v>1829</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -16773,13 +16719,13 @@
         <v>1295</v>
       </c>
       <c r="F419" t="s">
-        <v>1342</v>
+        <v>1397</v>
       </c>
       <c r="G419" t="s">
-        <v>1718</v>
+        <v>1706</v>
       </c>
       <c r="H419" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -16799,13 +16745,13 @@
         <v>1285</v>
       </c>
       <c r="F420" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="G420" t="s">
-        <v>1778</v>
+        <v>1764</v>
       </c>
       <c r="H420" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -16825,13 +16771,13 @@
         <v>1294</v>
       </c>
       <c r="F421" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="G421" t="s">
-        <v>1779</v>
+        <v>1765</v>
       </c>
       <c r="H421" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -16851,13 +16797,13 @@
         <v>1286</v>
       </c>
       <c r="F422" t="s">
-        <v>1342</v>
+        <v>1397</v>
       </c>
       <c r="G422" t="s">
-        <v>1718</v>
+        <v>1706</v>
       </c>
       <c r="H422" t="s">
-        <v>1816</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -16883,7 +16829,7 @@
         <v>1065</v>
       </c>
       <c r="H423" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -16909,7 +16855,7 @@
         <v>1245</v>
       </c>
       <c r="H424" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -16929,13 +16875,13 @@
         <v>1298</v>
       </c>
       <c r="F425" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="G425" t="s">
-        <v>1780</v>
+        <v>1766</v>
       </c>
       <c r="H425" t="s">
-        <v>1812</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -16955,13 +16901,13 @@
         <v>1330</v>
       </c>
       <c r="F426" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
       <c r="G426" t="s">
-        <v>1781</v>
+        <v>1767</v>
       </c>
       <c r="H426" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -16980,14 +16926,11 @@
       <c r="E427" t="s">
         <v>1285</v>
       </c>
-      <c r="F427" t="s">
-        <v>1482</v>
-      </c>
       <c r="G427" t="s">
-        <v>1782</v>
+        <v>1211</v>
       </c>
       <c r="H427" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -17010,10 +16953,10 @@
         <v>1294</v>
       </c>
       <c r="G428" t="s">
-        <v>1657</v>
+        <v>1648</v>
       </c>
       <c r="H428" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -17036,10 +16979,10 @@
         <v>1276</v>
       </c>
       <c r="G429" t="s">
-        <v>1496</v>
+        <v>1490</v>
       </c>
       <c r="H429" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -17059,13 +17002,13 @@
         <v>1294</v>
       </c>
       <c r="F430" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="G430" t="s">
-        <v>1783</v>
+        <v>1768</v>
       </c>
       <c r="H430" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -17088,10 +17031,10 @@
         <v>1377</v>
       </c>
       <c r="G431" t="s">
-        <v>1784</v>
+        <v>1769</v>
       </c>
       <c r="H431" t="s">
-        <v>1843</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -17117,7 +17060,7 @@
         <v>1089</v>
       </c>
       <c r="H432" t="s">
-        <v>1818</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -17137,13 +17080,13 @@
         <v>1294</v>
       </c>
       <c r="F433" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="G433" t="s">
-        <v>1785</v>
+        <v>1770</v>
       </c>
       <c r="H433" t="s">
-        <v>1812</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -17163,13 +17106,13 @@
         <v>1294</v>
       </c>
       <c r="F434" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="G434" t="s">
-        <v>1786</v>
+        <v>1771</v>
       </c>
       <c r="H434" t="s">
-        <v>1839</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -17189,13 +17132,13 @@
         <v>1285</v>
       </c>
       <c r="F435" t="s">
-        <v>1483</v>
+        <v>1477</v>
       </c>
       <c r="G435" t="s">
-        <v>1787</v>
+        <v>1772</v>
       </c>
       <c r="H435" t="s">
-        <v>1830</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -17218,10 +17161,10 @@
         <v>1340</v>
       </c>
       <c r="G436" t="s">
-        <v>1788</v>
+        <v>1773</v>
       </c>
       <c r="H436" t="s">
-        <v>1812</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -17241,13 +17184,13 @@
         <v>1294</v>
       </c>
       <c r="F437" t="s">
-        <v>1340</v>
+        <v>1276</v>
       </c>
       <c r="G437" t="s">
-        <v>1789</v>
+        <v>1490</v>
       </c>
       <c r="H437" t="s">
-        <v>1812</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -17273,7 +17216,7 @@
         <v>1089</v>
       </c>
       <c r="H438" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -17293,13 +17236,13 @@
         <v>1279</v>
       </c>
       <c r="F439" t="s">
-        <v>1342</v>
+        <v>1397</v>
       </c>
       <c r="G439" t="s">
-        <v>1790</v>
+        <v>1774</v>
       </c>
       <c r="H439" t="s">
-        <v>1812</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -17319,13 +17262,13 @@
         <v>1279</v>
       </c>
       <c r="F440" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="G440" t="s">
-        <v>1791</v>
+        <v>1775</v>
       </c>
       <c r="H440" t="s">
-        <v>1812</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -17345,13 +17288,13 @@
         <v>1279</v>
       </c>
       <c r="F441" t="s">
-        <v>1484</v>
+        <v>1478</v>
       </c>
       <c r="G441" t="s">
-        <v>1792</v>
+        <v>1776</v>
       </c>
       <c r="H441" t="s">
-        <v>1815</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -17374,10 +17317,10 @@
         <v>1394</v>
       </c>
       <c r="G442" t="s">
-        <v>1793</v>
+        <v>1777</v>
       </c>
       <c r="H442" t="s">
-        <v>1812</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -17397,13 +17340,13 @@
         <v>1294</v>
       </c>
       <c r="F443" t="s">
-        <v>1485</v>
+        <v>1382</v>
       </c>
       <c r="G443" t="s">
-        <v>1794</v>
+        <v>1778</v>
       </c>
       <c r="H443" t="s">
-        <v>1812</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -17426,10 +17369,10 @@
         <v>1394</v>
       </c>
       <c r="G444" t="s">
-        <v>1795</v>
+        <v>1779</v>
       </c>
       <c r="H444" t="s">
-        <v>1818</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -17449,13 +17392,13 @@
         <v>1332</v>
       </c>
       <c r="F445" t="s">
-        <v>1486</v>
+        <v>1479</v>
       </c>
       <c r="G445" t="s">
-        <v>1796</v>
+        <v>1780</v>
       </c>
       <c r="H445" t="s">
-        <v>1844</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -17475,13 +17418,13 @@
         <v>1279</v>
       </c>
       <c r="F446" t="s">
-        <v>1487</v>
+        <v>1480</v>
       </c>
       <c r="G446" t="s">
-        <v>1797</v>
+        <v>1781</v>
       </c>
       <c r="H446" t="s">
-        <v>1818</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -17504,10 +17447,10 @@
         <v>1294</v>
       </c>
       <c r="G447" t="s">
-        <v>1798</v>
+        <v>1782</v>
       </c>
       <c r="H447" t="s">
-        <v>1826</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -17527,13 +17470,13 @@
         <v>1285</v>
       </c>
       <c r="F448" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="G448" t="s">
-        <v>1799</v>
+        <v>1783</v>
       </c>
       <c r="H448" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -17553,13 +17496,13 @@
         <v>1294</v>
       </c>
       <c r="F449" t="s">
-        <v>1462</v>
+        <v>1480</v>
       </c>
       <c r="G449" t="s">
-        <v>1800</v>
+        <v>1784</v>
       </c>
       <c r="H449" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -17579,13 +17522,13 @@
         <v>1285</v>
       </c>
       <c r="F450" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G450" t="s">
-        <v>1571</v>
+        <v>1564</v>
       </c>
       <c r="H450" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -17605,13 +17548,13 @@
         <v>1285</v>
       </c>
       <c r="F451" t="s">
-        <v>1412</v>
+        <v>1481</v>
       </c>
       <c r="G451" t="s">
-        <v>1801</v>
+        <v>1785</v>
       </c>
       <c r="H451" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -17631,13 +17574,13 @@
         <v>1322</v>
       </c>
       <c r="F452" t="s">
-        <v>1342</v>
+        <v>1397</v>
       </c>
       <c r="G452" t="s">
-        <v>1802</v>
+        <v>1786</v>
       </c>
       <c r="H452" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -17657,13 +17600,13 @@
         <v>1294</v>
       </c>
       <c r="F453" t="s">
-        <v>1488</v>
+        <v>1482</v>
       </c>
       <c r="G453" t="s">
-        <v>1803</v>
+        <v>1787</v>
       </c>
       <c r="H453" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -17683,13 +17626,13 @@
         <v>1333</v>
       </c>
       <c r="F454" t="s">
-        <v>1489</v>
+        <v>1483</v>
       </c>
       <c r="G454" t="s">
-        <v>1804</v>
+        <v>1788</v>
       </c>
       <c r="H454" t="s">
-        <v>1831</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -17709,13 +17652,13 @@
         <v>1334</v>
       </c>
       <c r="F455" t="s">
-        <v>1490</v>
+        <v>1484</v>
       </c>
       <c r="G455" t="s">
-        <v>1805</v>
+        <v>1789</v>
       </c>
       <c r="H455" t="s">
-        <v>1836</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -17735,13 +17678,13 @@
         <v>1279</v>
       </c>
       <c r="F456" t="s">
-        <v>1491</v>
+        <v>1485</v>
       </c>
       <c r="G456" t="s">
-        <v>1806</v>
+        <v>1790</v>
       </c>
       <c r="H456" t="s">
-        <v>1834</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -17761,13 +17704,13 @@
         <v>1279</v>
       </c>
       <c r="F457" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="G457" t="s">
-        <v>1807</v>
+        <v>1791</v>
       </c>
       <c r="H457" t="s">
-        <v>1812</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -17793,7 +17736,7 @@
         <v>1211</v>
       </c>
       <c r="H458" t="s">
-        <v>1845</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -17813,13 +17756,13 @@
         <v>1294</v>
       </c>
       <c r="F459" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="G459" t="s">
-        <v>1808</v>
+        <v>1792</v>
       </c>
       <c r="H459" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -17842,10 +17785,10 @@
         <v>1340</v>
       </c>
       <c r="G460" t="s">
-        <v>1809</v>
+        <v>1793</v>
       </c>
       <c r="H460" t="s">
-        <v>1812</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -17865,13 +17808,13 @@
         <v>1322</v>
       </c>
       <c r="F461" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="G461" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H461" t="s">
         <v>1810</v>
-      </c>
-      <c r="H461" t="s">
-        <v>1826</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -17897,7 +17840,7 @@
         <v>968</v>
       </c>
       <c r="H462" t="s">
-        <v>1812</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -17920,10 +17863,10 @@
         <v>1392</v>
       </c>
       <c r="G463" t="s">
-        <v>1709</v>
+        <v>1698</v>
       </c>
       <c r="H463" t="s">
-        <v>1815</v>
+        <v>1799</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Categorization/lda2vec-partial-ner-glove-money.xlsx
+++ b/Results/Categorization/lda2vec-partial-ner-glove-money.xlsx
@@ -4543,7 +4543,7 @@
     <t>worth|menu</t>
   </si>
   <si>
-    <t>food|fresh|$6!-</t>
+    <t>food|fresh|$6</t>
   </si>
   <si>
     <t>dish|great</t>
@@ -4630,7 +4630,7 @@
     <t>pizza|like</t>
   </si>
   <si>
-    <t>toppings|$20!-|$3!-</t>
+    <t>toppings|$20|$3</t>
   </si>
   <si>
     <t>food|wait</t>
@@ -4699,7 +4699,7 @@
     <t>excellent</t>
   </si>
   <si>
-    <t>overpriced|price|$8.00!-</t>
+    <t>overpriced|price|$8.00</t>
   </si>
   <si>
     <t>well|always|wine|price</t>
@@ -4831,7 +4831,7 @@
     <t>good|well</t>
   </si>
   <si>
-    <t>menu|food|$18!-</t>
+    <t>menu|food|$18</t>
   </si>
   <si>
     <t>service|food|great|price</t>
@@ -4840,7 +4840,7 @@
     <t>atmosphere|wait</t>
   </si>
   <si>
-    <t>dish|reasonable|price|$3-6!-</t>
+    <t>dish|reasonable|price|$3-6</t>
   </si>
   <si>
     <t>well|great</t>
@@ -4912,7 +4912,7 @@
     <t>overpriced|restaurant|menu|wine|price</t>
   </si>
   <si>
-    <t>wine|$70!-|$30!-</t>
+    <t>wine|$70|$30</t>
   </si>
   <si>
     <t>service|would|price</t>
@@ -5014,7 +5014,7 @@
     <t>rude|restaurant</t>
   </si>
   <si>
-    <t>like|$7!-</t>
+    <t>like|$7</t>
   </si>
   <si>
     <t>seats|wall|benches</t>
@@ -5035,7 +5035,7 @@
     <t>good|though|food|price</t>
   </si>
   <si>
-    <t>good|though|price|$24!-</t>
+    <t>good|though|price|$24</t>
   </si>
   <si>
     <t>wait|special</t>
@@ -5044,7 +5044,7 @@
     <t>food|nice|wait</t>
   </si>
   <si>
-    <t>great|$10!-</t>
+    <t>great|$10</t>
   </si>
   <si>
     <t>wine|price</t>
@@ -5125,7 +5125,7 @@
     <t>place|well</t>
   </si>
   <si>
-    <t>like|great|100 dollar!-</t>
+    <t>like|great|100 dollar</t>
   </si>
   <si>
     <t>worth|great</t>
@@ -5137,13 +5137,13 @@
     <t>food|price</t>
   </si>
   <si>
-    <t>wait|staff|$*!-</t>
+    <t>wait|staff|$*</t>
   </si>
   <si>
     <t>best|atmosphere</t>
   </si>
   <si>
-    <t>great|great|$8.50!-</t>
+    <t>great|great|$8.50</t>
   </si>
   <si>
     <t>make|good|reasonable|back|price</t>
@@ -5245,10 +5245,10 @@
     <t>decor|reasonable|food|nice|price</t>
   </si>
   <si>
-    <t>sushi|$20!-</t>
-  </si>
-  <si>
-    <t>overpriced|price|$15!-</t>
+    <t>sushi|$20</t>
+  </si>
+  <si>
+    <t>overpriced|price|$15</t>
   </si>
   <si>
     <t>restaurant|really</t>
@@ -5257,7 +5257,7 @@
     <t>feel|like</t>
   </si>
   <si>
-    <t>good|though|meal|$60!-</t>
+    <t>good|though|meal|$60</t>
   </si>
   <si>
     <t>place|worth</t>
@@ -5278,19 +5278,19 @@
     <t>overpriced|service|food|price</t>
   </si>
   <si>
-    <t>dinner|$400.00!-</t>
+    <t>dinner|$400.00</t>
   </si>
   <si>
     <t>back|really|nice</t>
   </si>
   <si>
-    <t>plate|guacamole|$11!-</t>
+    <t>plate|guacamole|$11</t>
   </si>
   <si>
     <t>place|good|food</t>
   </si>
   <si>
-    <t>water|table|voss|bottles|water|piece|$8!-</t>
+    <t>water|table|voss|bottles|water|piece|$8</t>
   </si>
   <si>
     <t>friendly|good|food|price</t>
@@ -5317,10 +5317,10 @@
     <t>make|atmosphere|nice</t>
   </si>
   <si>
-    <t>service|dish|price|$10!-</t>
-  </si>
-  <si>
-    <t>dinner|wine|$500!-</t>
+    <t>service|dish|price|$10</t>
+  </si>
+  <si>
+    <t>dinner|wine|$500</t>
   </si>
   <si>
     <t>environment|name</t>
@@ -5335,13 +5335,13 @@
     <t>environment|lot|guys|trophy|wives|escorts</t>
   </si>
   <si>
-    <t>service|$500!-</t>
-  </si>
-  <si>
-    <t>drinks|$14!-</t>
-  </si>
-  <si>
-    <t>would|dinner|$55!-</t>
+    <t>service|$500</t>
+  </si>
+  <si>
+    <t>drinks|$14</t>
+  </si>
+  <si>
+    <t>would|dinner|$55</t>
   </si>
   <si>
     <t>would|good|dinner|food</t>
@@ -5356,10 +5356,10 @@
     <t>good|food|fresh</t>
   </si>
   <si>
-    <t>place|would|feel|restaurant|price|$25!-</t>
-  </si>
-  <si>
-    <t>place|food|$!-</t>
+    <t>place|would|feel|restaurant|price|$25</t>
+  </si>
+  <si>
+    <t>place|food|$</t>
   </si>
   <si>
     <t>worth</t>
@@ -5368,19 +5368,19 @@
     <t>place|dinner|romantic</t>
   </si>
   <si>
-    <t>stone|bowl|$2!-</t>
+    <t>stone|bowl|$2</t>
   </si>
   <si>
     <t>sushi|restaurant|romantic</t>
   </si>
   <si>
-    <t>menu|$29!-</t>
+    <t>menu|$29</t>
   </si>
   <si>
     <t>good|reasonable|great|price</t>
   </si>
   <si>
-    <t>service|rude|well|$500!-</t>
+    <t>service|rude|well|$500</t>
   </si>
   <si>
     <t>service|good|fresh|great|meal</t>
@@ -5389,13 +5389,13 @@
     <t>would|good|food|back|price</t>
   </si>
   <si>
-    <t>never|restaurant|$24!-</t>
+    <t>never|restaurant|$24</t>
   </si>
   <si>
     <t>would|menu|reasonable</t>
   </si>
   <si>
-    <t>service|$60!-</t>
+    <t>service|$60</t>
   </si>
   <si>
     <t>place|price</t>
